--- a/건설기술진흥법.xlsx
+++ b/건설기술진흥법.xlsx
@@ -445,1336 +445,1003 @@
     <t>제91조제3항제1호에도 불구하고 제20조제2항 전단에 따른 교육ㆍ훈련을 받지 아니한 건설기술인에 대한 과태료 부과는 2021년 12월 31일까지 유예한다. &lt;개정 2018.8.14, 2020.6.9</t>
   </si>
   <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설기술의 연구ㆍ개발을 촉진하고 그 성과를 효율적으로 이용하며 관련 산업의 진흥을 도모하기 위하여 건설기술진흥 기본계획(이하 "기본계획"이라 한다)을 5년마다 수립하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 기본계획에는 다음 각 호의 사항이 포함되어야 한다. &lt;개정 2015.5.18, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 기본계획을 수립할 때에는 관계 중앙행정기관의 장과 미리 협의한 후 제5조에 따라 국토교통부에 두는 중앙건설기술심의위원회의 심의를 받아야 한다. 기본계획 중 대통령령으로 정하는 내용을 변경하려는 경우에도 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 관계 행정기관의 장은 기본계획의 연차별 시행계획(이하 "시행계획"이라 한다)을 수립하여 국토교통부장관에게 통보하고 시행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항부터 제4항까지에서 규정한 사항 외에 기본계획과 시행계획의 수립ㆍ시행에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 국토교통부장관은 건설기술의 진흥을 위하여 필요한 경우 건설기술에 관한 정보관리, 건설기술인력 관리, 건설공사의 환경관리ㆍ안전관리ㆍ품질관리 등 건설기술의 각 분야별 기본계획을 수립할 수 있다. &lt;신설 2015.5.18&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설기술의 진흥ㆍ개발ㆍ활용 등 건설기술에 관한 사항을 심의하기 위하여 국토교통부에 중앙건설기술심의위원회(이하 "중앙심의위원회"라 한다)를 두고, 특별시ㆍ광역시ㆍ특별자치시ㆍ도 및 특별자치도(이하 "시ㆍ도"라 한다)에 지방건설기술심의위원회(이하 "지방심의위원회"라 한다)를 둔다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에도 불구하고 국방ㆍ군사시설 건설공사에 관한 설계 사항을 심의하기 위하여 국방부에 특별건설기술심의위원회(이하 "특별심의위원회"라 한다)를 둘 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 중앙심의위원회의 구성ㆍ기능 및 운영 등에 필요한 사항은 대통령령으로 정하는 기준에 따라 국토교통부장관이 관계 중앙행정기관의 장과 협의하여 정하고, 지방심의위원회의 구성ㆍ기능 및 운영 등에 필요한 사항은 대통령령으로 정하는 기준에 따라 해당 시ㆍ도의 조례로 정하며, 특별심의위원회를 두는 경우 그 구성ㆍ기능 및 운영 등에 필요한 사항은 대통령령으로 정하는 기준에 따라 국방부장관이 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설공사의 설계 및 시공 등의 적정성에 관한 발주청의 자문에 응하게 하기 위하여 발주청에 기술자문위원회를 둘 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 기술자문위원회의 구성ㆍ기능 및 운영 등에 필요한 사항은 대통령령으로 정하는 기준에 따라 발주청이 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설기술을 향상시키고 기본계획을 효율적으로 추진하기 위하여 대통령령으로 정하는 기관 또는 단체와 협약을 체결하여 건설기술 발전에 필요한 건설기술 연구ㆍ개발 사업을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 건설기술 연구ㆍ개발 사업에 필요한 경비는 정부 또는 정부 외의 자의 출연금이나 그 밖에 기업의 기술개발비로 충당한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따른 협약의 체결방법과 제2항에 따른 출연금의 지급ㆍ사용 및 관리에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설기술과 정보통신, 전자, 기계 등 다른 분야 기술을 융ㆍ복합한 기술(이하 "융ㆍ복합건설기술"이라 한다)의 개발ㆍ보급 및 활용을 촉진하기 위한 시책을 마련하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 융ㆍ복합건설기술을 활성화하기 위하여 스마트건설지원센터를 설치ㆍ운영할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 스마트건설지원센터는 다음 각 호의 업무를 수행한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 스마트건설지원센터의 운영을 대통령령으로 정하는 전문기관에 위탁할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 국토교통부장관은 스마트건설지원센터의 사업 및 운영에 필요한 비용을 예산의 범위에서 출연할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 스마트건설지원센터의 설치ㆍ운영과 제5항에 따른 출연금의 지급범위ㆍ사용 및 관리에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 정부는 건설기술 연구ㆍ개발 사업을 효율적으로 지원하기 위하여 기술평가기관을 설립할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 기술평가기관은 법인으로 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 기술평가기관은 주된 사무소의 소재지에서 설립등기를 함으로써 성립한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 기술평가기관은 다음 각 호의 사업을 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 기술평가기관은 제1항에 따른 목적 달성에 필요한 경비를 조달하기 위하여 대통령령으로 정하는 바에 따라 수익사업을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 국토교통부장관은 예산의 범위에서 기술평가기관이 제4항에 따른 사업을 하는 데에 필요한 경비의 전부 또는 일부를 출연하거나 보조할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 이 법에서 규정한 사항 외에 기술평가기관에 관하여는 「민법」의 재단법인에 관한 규정을 준용한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 제7조에 따른 건설기술 연구ㆍ개발 사업으로 개발된 건설기술의 이용ㆍ보급을 촉진하기 위하여 필요하다고 인정하는 경우에는 그 건설기술을 적용하는 시범사업을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 제1항에 따른 시범사업에 참여하는 발주청, 건설기술연구기관 등에 재정적ㆍ행정적ㆍ기술적 지원을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따른 시범사업을 위한 계획의 수립 및 추진 절차 등은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 국내에서 최초로 특정 건설기술을 개발하거나 기존 건설기술을 개량한 자의 신청을 받아 그 기술을 평가하여 신규성ㆍ진보성 및 현장 적용성이 있을 경우 그 기술을 새로운 건설기술(이하 "신기술"이라 한다)로 지정ㆍ고시할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 신기술을 개발한 자(이하 "기술개발자"라 한다)를 보호하기 위하여 필요한 경우에는 보호기간을 정하여 기술개발자가 기술사용료를 받을 수 있게 하거나 그 밖의 방법으로 보호할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 기술개발자는 신기술의 활용실적을 첨부하여 국토교통부장관에게 제2항에 따른 보호기간의 연장을 신청할 수 있고, 국토교통부장관은 그 신기술의 활용실적 등을 검증하여 보호기간을 연장할 수 있다. 이 경우 신기술 활용실적의 제출, 검증 및 보호기간의 연장 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 발주청에 신기술 및 제1항에 따라 신기술을 신청하고자 하는 기술과 관련된 장비 등의 성능시험이나 시공방법 등의 시험시공을 권고할 수 있으며, 신기술의 경우 성능시험 및 시험시공의 결과가 우수하면 신기술의 활용ㆍ촉진을 위하여 발주청이 시행하는 건설공사에 신기술을 우선 적용하게 할 수 있다. &lt;개정 2019.8.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 발주청은 신기술이 기존 건설기술에 비하여 시공성 및 경제성 등의 측면에서 우수하다고 인정되는 경우 해당 신기술을 그가 시행하는 건설공사에 우선 적용하여야 한다. &lt;신설 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 신기술 및 제1항에 따라 신기술을 신청하고자 하는 기술을 적용하는 건설공사의 발주청 소속 계약사무담당자 및 설계 등 공사업무 담당자는 고의 또는 중대한 과실이 증명되지 아니하면 해당 기술 적용으로 인하여 발생한 해당 기관의 손실에 대하여는 책임을 지지 아니한다. &lt;신설 2015.12.29, 2019.8.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 국토교통부장관은 제2항에 따라 보호를 받는 기술개발자에게 신기술의 성능 또는 품질의 향상을 위하여 필요한 경우에는 신기술의 개선을 권고할 수 있다. &lt;개정 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 제1항에 따른 신기술 평가방법 및 지정절차 등과 제2항에 따른 신기술의 보호내용, 기술사용료, 보호기간 및 활용방법 등과 제4항에 따른 시험시공의 권고 등에 관하여 필요한 사항은 대통령령으로 정한다. &lt;개정 2015.12.29, 2019.8.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 기술개발자는 건설사업자 중 대통령령으로 정하는 요건을 갖춘 자와 해당 신기술의 사용협약(이하 "신기술사용협약"이라 한다)을 체결할 수 있다. 이 경우 기술개발자 또는 신기술사용협약을 체결한 자는 대통령령으로 정하는 서류를 갖추어 국토교통부장관에게 신기술사용협약에 관한 증명서의 발급을 신청할 수 있다. &lt;개정 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 제1항 후단에 따른 신청을 받은 경우 신기술사용협약을 체결한 자가 같은 항 전단에 따른 요건을 갖추었는지 확인한 후에 신기술사용협약에 관한 증명서를 발급하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 신기술사용협약의 기간은 해당 신기술의 보호기간 이내로 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지에서 규정한 사항 외에 신기술사용협약에 관한 세부적인 사항은 대통령령으로 정하는 기준에 따라 국토교통부장관이 정하여 고시한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 「외국인투자 촉진법」에 따라 외국에서 도입된 건설기술을 효율적으로 이용하기 위하여 대통령령으로 정하는 바에 따라 관리하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청은 건설공사 또는 건설엔지니어링사업을 국제경쟁입찰방식으로 발주하는 경우에는 국내에서 필요한 새로운 건설기술을 보다 많이 제공할 수 있는 자를 우대하여 발주할 수 있다. 이 경우 국내에서 필요한 새로운 건설기술인지 여부는 중앙심의위원회의 심의를 거쳐 결정한다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항에 따른 우대 발주에 관하여 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 다음 각 호의 건설기술에 관한 자료 및 정보의 종합적인 유통체계를 갖추고 그 보급과 확산을 위하여 대통령령으로 정하는 바에 따라 건설기술정보체계를 구축ㆍ운영하여야 한다. &lt;개정 2018.8.14, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 제1항에 따른 건설기술정보체계의 구축을 위하여 중앙행정기관, 지방자치단체 및 공기업ㆍ준정부기관의 장이 대통령령으로 정하는 건설기술 관련 자료를 발행하거나 제작하였을 때에 그 자료의 제공을 요청할 수 있다. 이 경우 자료의 제공을 요청받은 기관의 장은 특별한 사유가 없으면 요청에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항에 따른 건설기술 관련 자료의 송부 방법 및 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설공사 과정의 정보화를 촉진하고 그 성과를 효율적으로 이용하도록 하기 위하여 건설공사 지원 통합정보체계의 구축에 관한 기본계획(이하 "통합정보체계 구축계획"이라 한다)을 수립하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 통합정보체계 구축계획에는 다음 각 호의 사항이 포함되어야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 통합정보체계 구축계획을 수립할 때에는 관계 중앙행정기관의 장과 협의한 후에 중앙심의위원회의 심의를 받아야 한다. 통합정보체계 구축계획 중 제2항제1호부터 제3호까지의 사항이나 그 밖에 대통령령으로 정하는 내용을 변경하려는 경우에도 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 통합정보체계 구축계획을 수립할 때에는 「지능정보화 기본법」 제6조에 따른 지능정보사회 종합계획 및 같은 법 제7조에 따른 지능정보사회 실행계획과 연계되도록 하여야 한다. &lt;개정 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 국토교통부장관은 관계 중앙행정기관, 지방자치단체 및 「공공기관의 운영에 관한 법률」에 따른 공공기관 등 관계 기관의 장에게 건설공사 지원 통합정보체계의 구축ㆍ운영에 필요한 자료 또는 정보의 제공을 요청할 수 있다. 이 경우 자료 또는 정보의 제공을 요청받은 기관의 장은 특별한 사유가 없으면 요청에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 국토교통부장관은 국토교통부장관이 정하여 고시하는 전담기관으로 하여금 건설공사 지원 통합정보체계를 구축ㆍ운영하게 할 수 있다. 이 경우 국토교통부장관은 전담기관의 장에게 필요한 사업비에 충당하도록 출연할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 제6항에 따른 전담기관의 관리, 그 밖에 건설공사 지원 통합정보체계의 구축ㆍ운영 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설기술인의 효율적 활용과 기술능력 향상을 위하여 필요한 경우에는 건설기술인의 육성과 교육ㆍ훈련 등에 관한 시책을 수립ㆍ추진할 수 있다. &lt;개정 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 대통령령으로 정하는 건설기술인은 업무 수행에 필요한 소양과 지식을 습득하기 위하여 대통령령으로 정하는 바에 따라 국토교통부장관이 실시하는 교육ㆍ훈련을 받아야 한다. 이 경우 국토교통부장관은 교육ㆍ훈련 이수 실적을 제21조제2항에 따른 건설기술인 등급 산정에 활용할 수 있다. &lt;개정 2018.6.12, 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항 전단에 따라 교육ㆍ훈련을 받아야 할 사람을 고용하고 있는 사용자는 건설기술인이 제2항 전단에 따른 교육ㆍ훈련을 받는 데에 필요한 경비를 부담하여야 하며, 이를 이유로 그 건설기술인에게 불이익을 주어서는 아니 된다. &lt;개정 2018.6.12, 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지에서 규정한 사항 외에 건설기술인의 육성 및 교육ㆍ훈련에 필요한 세부사항은 대통령령으로 정한다. &lt;신설 2018.12.31, 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설기술인을 육성하기 위하여 「공공기관의 운영에 관한 법률」에 따른 공공기관이나 대통령령으로 정하는 건설기술과 관련된 기관 또는 단체로 하여금 제20조제2항 전단에 따른 교육ㆍ훈련을 대행하도록 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 교육ㆍ훈련을 대행하려는 자는 교육시설, 교수요원 등 대통령령으로 정하는 요건을 갖추어 국토교통부장관에게 신청하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 제1항에 따라 교육ㆍ훈련을 대행하는 자(이하 "교육ㆍ훈련기관"이라 한다)에게 교육ㆍ훈련에 필요한 비용의 일부를 지원할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지에서 규정한 사항 외에 교육ㆍ훈련 대행에 필요한 세부사항은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제20조의2제1항에 따른 대행의 유효기간은 3년으로 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 교육ㆍ훈련기관이 대행의 유효기간이 끝난 후에도 대행을 계속하려는 경우에는 그 유효기간이 끝나기 전에 국토교통부장관의 심사를 받아 대행을 갱신하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항에 따라 대행을 갱신하려는 교육ㆍ훈련기관은 국토교통부령으로 정하는 바에 따라 국토교통부장관에게 대행의 갱신을 신청하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지에서 규정한 사항 외에 대행의 유효기간 및 갱신에 필요한 세부사항은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 교육ㆍ훈련기관이 다음 각 호의 어느 하나에 해당하는 경우 교육ㆍ훈련 대행을 취소하거나 1년 이내의 기간을 정하여 정지 또는 개선을 명할 수 있다. 다만, 제1호의 경우에는 대행을 취소하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 교육ㆍ훈련의 대행이 취소된 경우로서 다음 각 호의 어느 하나에 해당하면 그 취소된 날부터 3년이 지나기 전에는 교육ㆍ훈련의 대행을 신청할 수 없다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 다음 각 호에 따른 업무의 전부 또는 일부를 대통령령으로 정하는 자에게 위탁할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 제1항에 따른 업무의 위탁에 필요한 비용을 지원할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항 및 제2항에 따른 업무 위탁의 범위, 비용 지원, 위탁 절차 등 교육ㆍ훈련 업무의 위탁에 필요한 사항은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설공사 또는 건설엔지니어링 업무에 종사하는 사람으로서 건설기술인으로 인정받으려는 사람은 근무처ㆍ경력ㆍ학력 및 자격 등(이하 "근무처 및 경력등"이라 한다)의 관리에 필요한 사항을 국토교통부장관에게 신고하여야 한다. 신고사항이 변경된 경우에도 같다. &lt;개정 2018.8.14, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 제1항에 따라 신고를 받은 경우에는 건설기술인의 근무처 및 경력등에 관한 기록을 유지ㆍ관리하여야 하고, 신고내용을 토대로 건설기술인 등급을 정할 수 있으며, 건설기술인이 신청하면 건설기술인의 등급, 근무처 및 경력등에 관한 증명서(이하 "건설기술경력증"이라 한다)를 발급할 수 있다. &lt;개정 2018.6.12, 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 제1항에 따라 신고받은 내용을 확인하기 위하여 필요한 경우에는 중앙행정기관, 지방자치단체, 「초ㆍ중등교육법」 제2조 및 「고등교육법」 제2조에 따른 학교, 발주청, 신고한 건설기술인이 소속된 건설 관련 업체 등 관계 기관의 장에게 관계 자료를 제출하여 줄 것을 요청할 수 있다. 이 경우 요청을 받은 기관의 장은 특별한 사유가 없으면 요청에 따라야 한다. &lt;개정 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 「건설산업기본법」 등 관계 법률에 따라 인가, 허가, 등록, 면허 등을 하려는 행정기관의 장은 건설기술인의 근무처 및 경력등의 확인이 필요한 경우에는 국토교통부장관의 확인을 받아야 한다. &lt;개정 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항부터 제4항까지의 규정에 따른 건설기술인의 신고, 건설기술경력증의 발급ㆍ관리, 건설기술인의 현황 통보 등에 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설기술인은 발주자 또는 건설사업관리를 수행하는 건설기술인의 공사관리 등과 관련한 요구를 이행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주자 또는 건설기술인을 고용하고 있는 사용자는 관계 법령에 위반되거나 건설공사의 설계도서, 시방서(示方書), 그 밖의 관계 서류의 내용과 맞지 아니한 사항을 건설기술인에게 요구해서는 아니 되며, 건설기술인은 이러한 부당한 요구를 받은 때에는 이유를 밝히고 그 요구를 따르지 아니할 수 있다. 이 경우 발주자 또는 건설기술인을 고용하고 있는 사용자는 이를 이유로 그 건설기술인에게 불이익을 주어서는 아니 된다. &lt;개정 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제69조제1항에 따른 건설기술인단체는 건설기술인의 업무수행과 관련된 권리ㆍ의무 등 기본적인 사항을 건설기술인권리헌장으로 제정하여 공표할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설기술인은 자기의 성명을 사용하여 다른 사람에게 건설공사 또는 건설엔지니어링 업무를 수행하게 하거나 건설기술경력증을 빌려 주어서는 아니 된다. &lt;개정 2018.8.14, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 누구든지 다른 사람의 성명을 사용하여 건설공사 또는 건설엔지니어링 업무를 수행하거나 다른 사람의 건설기술경력증을 빌려서는 아니 된다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 누구든지 제1항이나 제2항에서 금지된 행위를 알선하여서는 아니 된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설기술인이 다음 각 호의 어느 하나에 해당하면 2년 이내의 기간을 정하여 건설공사 또는 건설엔지니어링 업무의 수행을 정지하게 할 수 있다. &lt;개정 2018.8.14, 2018.12.31, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청은 건설기술인이 업무를 성실하게 수행하지 아니함으로써 건설공사가 부실하게 될 우려가 있으면 국토교통부령으로 정하는 바에 따라 그 건설기술인에게 시정지시 등 필요한 조치를 하고, 그 결과를 국토교통부장관에게 제출하여야 한다. &lt;개정 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청과 건설공사의 허가ㆍ인가ㆍ승인 등을 한 행정기관(이하 "인ㆍ허가기관"이라 한다)의 장은 건설기술인이 제1항 각 호의 어느 하나에 해당하는 경우에는 그 사실을 국토교통부장관에게 통보하여야 하며, 국토교통부장관은 건설기술인에 대하여 제1항에 따라 업무의 수행을 정지하게 한 경우 해당 발주청 및 인ㆍ허가기관의 장에게 그 내용을 통보하여야 한다. &lt;개정 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항에 따라 업무정지처분을 받은 건설기술인은 지체 없이 건설기술경력증을 국토교통부장관에게 반납하여야 하며, 국토교통부장관은 근무처 및 경력등에 관한 기록의 수정 또는 말소 등 필요한 조치를 하여야 한다. &lt;개정 2018.8.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항에 따른 업무정지의 기준과 그 밖에 필요한 사항은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설엔지니어링에 관한 기술 수준의 향상과 건설엔지니어링업의 건전한 발전 및 고도화를 도모하기 위하여 필요한 경우에는 산업통상자원부장관 및 관계 중앙행정기관의 장과 협의하여 건설산업의 특성에 맞게 건설엔지니어링업의 육성 및 지원을 위한 시책을 수립하여 시행할 수 있다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 건설엔지니어링업의 육성을 위하여 건설엔지니어링사업자에게 다음 각 호의 사항을 지원할 수 있다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청이 발주하는 건설엔지니어링사업을 수행하려는 자는 전문분야별 요건을 갖추어 특별시장ㆍ광역시장ㆍ특별자치시장ㆍ도지사 또는 특별자치도지사(이하 "시ㆍ도지사"라 한다)에게 등록하여야 한다. 다만, 발주청이 발주하는 건설엔지니어링 중 건설공사의 계획ㆍ조사ㆍ설계를 수행하기 위하여 시ㆍ도지사에게 등록하려는 자는 「엔지니어링산업 진흥법」 제2조제4호에 따른 엔지니어링사업자 또는 「기술사법」 제6조제1항에 따른 사무소를 등록한 기술사이어야 한다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 시ㆍ도지사는 건설엔지니어링사업자에게 국토교통부령으로 정하는 바에 따라 등록증을 발급하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 건설엔지니어링사업자는 제1항에 따라 등록한 사항 중 국토교통부령으로 정하는 사항이 변경된 경우에는 국토교통부령으로 정하는 기간 이내에 변경등록을 하여야 한다. &lt;개정 2019.4.30, 2020.10.20, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 건설엔지니어링사업자는 휴업하거나 폐업하는 경우에는 국토교통부령으로 정하는 바에 따라 시ㆍ도지사에게 신고하여야 한다. 이 경우 폐업신고를 받은 시ㆍ도지사는 그 등록을 말소하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 시ㆍ도지사는 제1항부터 제4항까지의 규정에 따라 건설엔지니어링사업자가 등록 또는 변경등록을 하거나 건설엔지니어링사업자로부터 휴업 또는 폐업 신고를 받은 경우에는 그 사실을 국토교통부장관에게 통보하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항 본문에 따른 건설엔지니어링업의 전문분야 구분, 전문분야별 등록요건 및 업무범위 등은 대통령령으로 정한다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 건설엔지니어링업의 등록 및 변경등록, 휴업ㆍ폐업의 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설엔지니어링사업자와 그 건설엔지니어링 업무를 수행하는 건설기술인은 관계 법령에 따라 성실하고 정당하게 업무를 수행하여야 한다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설엔지니어링사업자는 타인에게 자기의 성명 또는 상호를 사용하여 건설엔지니어링을 하게 하거나 등록증을 빌려 주어서는 아니 된다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설엔지니어링사업자는 다음 각 호의 어느 하나에 해당하는 경우에는 국토교통부령으로 정하는 바에 따라 시ㆍ도지사에게 신고하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 시ㆍ도지사는 제1항에 따른 신고를 받은 날부터 30일 이내에 신고수리 여부를 신고인에게 통지하여야 한다. &lt;신설 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 시ㆍ도지사가 제2항에서 정한 기간 내에 신고수리 여부 또는 민원 처리 관련 법령에 따른 처리기간의 연장을 신고인에게 통지하지 아니하면 그 기간(민원 처리 관련 법령에 따라 처리기간이 연장 또는 재연장된 경우에는 해당 처리기간을 말한다)이 끝난 날의 다음 날에 신고를 수리한 것으로 본다. &lt;신설 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 다음 각 호의 어느 하나에 해당하는 자는 제26조제1항에 따른 등록요건을 갖추고 제1항에 따른 신고가 수리된 때(제3항에 따라 신고가 수리된 것으로 보는 때를 포함한다)부터 건설엔지니어링업의 등록에 관한 권리ㆍ의무를 승계한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제4항에 따라 종전의 건설엔지니어링업의 등록에 관한 권리ㆍ의무를 승계한 자는 국토교통부령으로 정하는 바에 따라 종전의 건설엔지니어링 실적을 승계한다. &lt;개정 2018.12.31, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설엔지니어링업을 체계적으로 육성하기 위하여 다음 각 호의 현황 및 실적을 관리하여야 한다. &lt;신설 2019.11.26, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청은 그가 발주하는 건설엔지니어링의 계약을 체결하거나 변경한 경우와 건설엔지니어링을 준공한 경우에는 10일 이내에 그 사실을 국토교통부장관에게 통보하여야 한다. &lt;개정 2019.11.26, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 발주자가 적절한 건설엔지니어링사업자를 선정할 수 있도록 하기 위하여 제1항에 따른 건설엔지니어링사업자의 현황과 건설엔지니어링 실적을 공개할 수 있다. &lt;개정 2019.4.30, 2019.11.26, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지의 규정에 따른 건설엔지니어링의 현황 및 실적 관리ㆍ통보ㆍ공개 등에 필요한 사항은 대통령령으로 정한다. &lt;개정 2019.11.26, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 시ㆍ도지사는 건설엔지니어링사업자가 다음 각 호의 어느 하나에 해당하면 그 등록을 취소하거나 1년 이내의 기간을 정하여 영업의 전부 또는 일부의 정지를 명할 수 있다. 다만, 제1호부터 제5호까지의 어느 하나에 해당하면 등록을 취소하여야 한다. &lt;개정 2018.6.12, 2019.1.15, 2019.4.30, 2020.6.9, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 시ㆍ도지사는 건설엔지니어링사업자가 다음 각 호의 어느 하나에 해당하면 6개월 이내의 기간을 정하여 영업정지를 명할 수 있다. &lt;개정 2016.1.19, 2017.8.9, 2018.8.14, 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 건설엔지니어링사업자는 제1항과 제2항에 따른 영업정지기간에는 상호를 바꾸어 건설엔지니어링의 입찰에 참가하거나 건설엔지니어링을 수주(受注)할 수 없다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 발주청과 인ㆍ허가기관의 장은 건설엔지니어링사업자가 제1항 각 호 또는 제2항 각 호의 어느 하나에 해당하는 경우에는 그 사실을 시ㆍ도지사에게 통보하여야 하며, 시ㆍ도지사는 건설엔지니어링사업자에 대하여 제1항ㆍ제2항 또는 제32조제1항에 따라 등록취소, 영업정지 또는 과징금 부과 등의 조치를 하는 경우 국토교통부장관, 해당 발주청 및 인ㆍ허가기관의 장에게 그 내용을 통보하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항과 제2항에 따른 처분의 세부 기준은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 시ㆍ도지사는 제31조제1항에 따라 영업정지를 명하여야 하는 경우에는 영업정지를 갈음하여 2억원 이하의 과징금을, 같은 조 제2항에 따라 영업정지를 명하여야 하는 경우에는 영업정지를 갈음하여 6천만원 이하의 과징금을 부과할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 과징금 부과처분을 받은 자가 과징금을 기한까지 내지 아니하면 「지방행정제재ㆍ부과금의 징수 등에 관한 법률」에 따라 징수한다. &lt;개정 2013.8.6, 2020.3.24&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 과징금을 부과하는 위반행위의 종류 및 위반 정도 등에 따른 과징금의 금액과 그 밖에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제31조제1항 또는 제2항에 따라 등록취소 또는 영업정지의 처분을 받은 건설엔지니어링사업자는 그 처분을 받기 전에 체결한 건설엔지니어링계약에 따른 업무는 계속할 수 있다. 이 경우 건설엔지니어링사업자는 그 처분을 받은 내용을 대통령령으로 정하는 기간 이내에 해당 건설엔지니어링의 발주자에게 통지하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설엔지니어링의 발주자는 건설엔지니어링사업자로부터 제1항에 따른 통지를 받거나 그 사실을 안 경우에는 그 날부터 30일 이내에만 해당 건설엔지니어링 계약을 해지할 수 있다. &lt;개정 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설엔지니어링사업자는 건설엔지니어링 계약을 이행할 때 고의 또는 과실로 해당 건설엔지니어링 목적물 또는 제3자에게 손해를 발생하게 한 경우에는 그 손해를 배상하여야 한다. &lt;개정 2015.7.24, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 배상을 담보하기 위하여 대통령령으로 정하는 건설엔지니어링사업자는 보험 또는 공제에 가입하여야 한다. 이 경우 발주청은 보험 또는 공제 가입에 따른 비용을 건설엔지니어링 비용에 계상(計上)하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 건설사업관리 계약을 체결할 때 건설엔지니어링사업자로 하여금 하자책임을 보증하게 하기 위하여 하자보증금을 예치하게 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제2항에 따른 보험 또는 공제의 기간, 종류, 대상 및 방법 등에 관하여 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제3항에 따른 하자책임의 범위, 하자보증금의 산정(算定) 및 예치방법 등에 관하여 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 건설엔지니어링사업 중 대통령령으로 정하는 규모 이상의 사업을 시행할 때에는 대통령령으로 정하는 바에 따라 집행계획을 작성하여 공고하여야 한다. &lt;개정 2018.12.31, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 공고된 사업은 대통령령으로 정하는 사업수행능력 평가에 의한 선정기준 및 선정절차에 따라 선정된 건설엔지니어링사업자에게 맡겨 시행하여야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 제39조제2항에 따라 건설사업관리를 시행할 건설엔지니어링사업자를 선정할 때에는 다음 각 호에 모두 해당하는 건설엔지니어링사업자(각 호에 해당하는 자와 공동수급체를 구성한 건설엔지니어링사업자를 포함한다)를 우대할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 건설엔지니어링사업자는 제2항에 따라 발주청이 발주하는 건설엔지니어링을 도급받은 경우 발주청의 승인을 받아 그 일부를 다른 건설엔지니어링사업자에게 하도급할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제4항에 따른 승인 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 건설엔지니어링을 건설엔지니어링사업자에게 수행하게 한 경우에는 다른 법령이나 국토교통부장관이 정하여 고시하는 건설엔지니어링비 산정기준에 따라 산정한 건설엔지니어링비를 지급하여야 한다. 이 경우 발주청은 천재지변 등 국토교통부령으로 정하는 불가피한 사유가 있는 경우를 제외하고는 건설엔지니어링비를 임의로 감액하여 지급할 수 없다. &lt;개정 2019.4.30, 2020.10.20, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 국토교통부장관이 건설엔지니어링비 산정기준을 정할 때에는 미리 기획재정부장관 또는 산업통상자원부장관 등 관계 행정기관의 장과 협의하여야 한다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관 또는 시ㆍ도지사는 건설엔지니어링사업자의 업무 수행에 관한 사항을 지도ㆍ감독하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관 또는 시ㆍ도지사는 제1항에 따른 지도ㆍ감독을 위하여 필요하다고 인정하는 경우에는 건설엔지니어링사업자에게 그 업무에 관한 보고 또는 관계 자료의 제출을 명할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관 또는 시ㆍ도지사는 제1항에 따른 지도ㆍ감독을 위하여 필요하다고 인정하는 경우에는 소속 공무원으로 하여금 사무실 및 공사현장 등에 출입하여 검사하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제3항에 따른 검사를 하는 사람은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 보여주어야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 건설공사를 효율적으로 수행하기 위하여 필요한 경우에는 다음 각 호의 어느 하나에 해당하는 건설공사에 대하여 건설엔지니어링사업자로 하여금 건설사업관리를 하게 할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청은 건설공사의 품질 확보 및 향상을 위하여 대통령령으로 정하는 건설공사에 대하여는 법인인 건설엔지니어링사업자로 하여금 건설사업관리(시공단계에서 품질 및 안전관리 실태의 확인, 설계변경에 관한 사항의 확인, 준공검사 등 발주청의 감독 권한대행 업무를 포함한다)를 하게 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 대통령령으로 정하는 설계용역에 대하여 건설엔지니어링사업자로 하여금 건설사업관리를 하게 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지의 규정에 따른 건설사업관리 업무를 수행한 건설엔지니어링사업자는 건설공사의 주요 구조부에 대한 시공, 검사 및 시험 등 세부적인 업무내용을 포함한 보고서를 국토교통부령으로 정하는 바에 따라 작성하여 발주청에 제출하여야 한다. 이 경우 건설사업관리보고서는 건설엔지니어링사업자의 소속 건설기술인 중 대통령령으로 정하는 건설기술인이 작성하여야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 건설엔지니어링사업자는 다음 각 호의 어느 하나에 해당하는 건설기술인으로 하여금 제1항부터 제3항까지의 규정에 따른 건설사업관리 업무를 수행하게 할 수 없다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제2항에 따라 건설사업관리를 수행하는 건설엔지니어링사업자는 다음 각 호의 업무를 수행하여야 한다. 이 경우 건설엔지니어링사업자는 소속 건설기술인 중 대통령령으로 정하는 건설기술인에게 해당 업무의 수행을 지시하여야 한다. &lt;신설 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 건설사업관리의 세부 업무 내용 및 업무 범위 등 제1항부터 제3항까지의 규정에 따라 건설사업관리를 수행하는 데 필요한 사항은 대통령령으로 정한다. &lt;개정 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 건설공사의 부실시공 및 안전사고의 예방 등 건설공사의 시공을 관리하기 위하여 건설공사 착공 전까지 시공단계의 건설사업관리계획(이하 "건설사업관리계획"이라 한다)을 국토교통부장관이 정하여 고시하는 기준에 따라 수립하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설사업관리계획에는 다음 각 호의 사항을 포함하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 제62조에 따른 안전관리계획을 수립하여야 하는 건설공사 및 총공사비가 100억원 이상인 건설공사 중 대통령령으로 정하는 건설공사에 대하여 건설사업관리계획을 수립할 때에는 제6조에 따른 기술자문위원회의 심의를 받아야 한다. 건설사업관리계획을 변경하려는 경우에도 또한 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 발주청은 건설사업관리계획을 수립하거나 변경한 때에는 이를 국토교통부장관에게 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 발주청은 건설엔지니어링사업자로 하여금 시공단계의 건설사업관리를 하게 하려는 경우에는 건설사업관리계획을 준수하여 입찰공고하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 발주청은 제2항제2호에 따른 건설사업관리기술인 또는 공사감독자의 배치 등 건설사업관리계획을 준수할 수 없는 경우에는 건설공사를 착공하게 하거나 건설공사를 진행하게 하여서는 아니 된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 제1항부터 제5항까지에서 규정한 사항 외에 건설사업관리계획의 수립, 변경 또는 시행 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제39조제2항에 따라 건설사업관리를 수행하는 건설엔지니어링사업자는 건설사업자가 현지여건의 변경이나 건설공사의 품질향상 등을 위한 개선사항의 검토를 요청하는 경우 이를 검토하고, 발주청에 관련 서류를 첨부하여 보고하는 등 필요한 조치(이하 "실정보고"라 한다)를 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설엔지니어링사업자가 실정보고를 하는 경우에는 관련 기록을 유지ㆍ관리하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 건설엔지니어링사업자가 실정보고를 하는 경우 이를 접수하여 검토하고, 필요하면 설계변경 등 적절한 조치를 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 건설사업관리를 수행하는 건설엔지니어링사업자는 소속 건설기술인 중에서 해당 건설사업관리의 책임건설기술인을 지명하여 실정보고의 권한을 위임할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 실정보고에 따른 조치 기한 등 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청 소속 직원은 제39조제2항에 따라 건설사업관리를 시행하는 건설공사에 대하여 대통령령으로 정하는 발주청의 업무 외에 정당한 사유 없이 건설사업관리 업무를 수행하는 건설엔지니어링사업자(이하 "건설사업관리용역사업자"라 한다) 및 건설사업관리기술인의 업무에 개입 또는 간섭하거나 권한을 침해해서는 아니 된다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청의 소속 직원이 건설사업관리용역사업자 및 건설사업관리기술인의 업무에 정당한 사유 없이 개입 또는 간섭하거나 권한을 침해한 경우 해당 건설사업관리용역사업자 및 건설사업관리기술인은 발주청에 이를 보고하고 사실조사를 의뢰할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 제2항에 따른 사실조사를 의뢰받은 때에는 즉시 이를 조사하여야 하고, 소속 직원이 건설사업관리용역사업자 및 건설사업관리기술인의 업무에 대하여 정당한 사유 없이 개입 또는 간섭하거나 권한을 침해한 사실이 있다고 인정되는 경우에는 방해행위의 중지, 향후 재발방지 등 시정조치를 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 발주청은 제3항에 따른 사실조사 결과 및 시정조치 명령의 내용을 국토교통부장관, 해당 건설사업관리용역사업자 및 건설사업관리기술인에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 발주청은 제2항에 따른 사실조사 의뢰 등을 이유로 건설사업관리용역사업자 및 건설사업관리기술인에게 용역대가 지급의 거부ㆍ지체 등 불이익을 주어서는 아니 된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제39조제2항에 따라 건설사업관리를 수행하는 건설엔지니어링사업자와 제49조제1항에 따른 공사감독자는 건설사업자가 건설공사의 설계도서ㆍ시방서(示方書), 그 밖의 관계 서류의 내용과 맞지 아니하게 그 건설공사를 시공하는 경우 또는 제62조에 따른 안전관리 의무를 위반하거나, 제66조에 따른 환경관리 의무를 위반하여 인적ㆍ물적 피해가 우려되는 경우에는 재시공ㆍ공사중지(부분 공사중지를 포함한다) 명령이나 그 밖에 필요한 조치를 할 수 있다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 건설엔지니어링사업자 또는 공사감독자로부터 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치에 관한 지시를 받은 건설사업자는 특별한 사유가 없으면 이에 따라야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 건설엔지니어링사업자 또는 공사감독자는 제1항에 따라 건설사업자에게 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치를 한 경우에는 지체 없이 이에 관한 사항을 해당 건설공사의 발주청에 보고하여야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항에 따라 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치를 한 건설엔지니어링사업자 또는 공사감독자는 시정 여부를 확인한 후 공사재개 지시 등 필요한 조치를 하여야 하며, 이 경우 지체 없이 이에 관한 사항을 해당 건설공사의 발주청에 보고하여야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 건설사업관리를 수행하는 건설엔지니어링사업자는 소속 건설기술인 중에서 해당 건설사업관리의 책임건설기술인을 지명하여 제1항에 따른 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치의 권한을 위임할 수 있다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항에 따른 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치의 요건, 절차 및 방법 등에 관하여 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 건설공사와 그 건설공사에 딸리는 전기ㆍ소방 등의 설비공사(이하 "설비공사"라 한다)에 대한 건설사업관리 및 감리를 다음 각 호의 어느 하나에 해당하는 자로 하여금 하게 하는 경우에는 해당 건설사업관리를 수행하는 자와 감리를 수행하는 자 중에서 그 건설공사와 설비공사에 대한 건설사업관리 및 감리 업무를 총괄하여 관리할 자(이하 "총괄관리자"라 한다)를 선정할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 총괄관리자는 건설공사 및 설비공사의 품질ㆍ안전 관리와 효율적인 건설사업관리 및 감리 업무의 수행을 위하여 필요하다고 인정하는 경우에는 다른 건설사업관리를 수행하는 자와 감리를 수행하는 자에게 시정지시 등 필요한 조치를 할 수 있으며, 정당한 사유 없이 조치에 따르지 아니하는 경우에는 그 사실을 발주청에 보고하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 총괄관리자의 권한, 업무 범위, 그 밖에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설공사에 드는 비용을 줄이고 시설물의 품질을 향상시키기 위하여 건설자재ㆍ부재의 치수 및 시공방법을 표준화하도록 노력하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 제1항에 따른 표준화를 촉진하기 위하여 다음 각 호의 자에게 대통령령으로 정하는 바에 따라 설계ㆍ생산 또는 시공 과정에서 시험생산ㆍ시험시공 등을 하도록 권고할 수 있다. &lt;개정 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 관계 기관의 장에게 제1항에 따른 표준화와 관련된 「산업표준화법」 제12조에 따른 한국산업표준 등 기준의 정비 및 자금 지원 등 필요한 사항을 요청할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관이나 그 밖에 대통령령으로 정하는 자는 건설공사의 기술성ㆍ환경성 향상 및 품질 확보와 적정한 공사 관리를 위하여 다음 각 호에 관한 기준(이하 "건설기준"이라 한다)을 정할 수 있다. &lt;개정 2014.5.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 대통령령으로 정하는 자가 건설기준을 정하려면 국토교통부장관의 승인을 받아야 한다. &lt;개정 2014.5.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 건설기준 설정의 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2014.5.14&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설기준의 개발 촉진과 그 활용을 위한 시책을 마련하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 건설기준을 효율적으로 관리하기 위하여 국가건설기준센터를 설치ㆍ운영할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국가건설기준센터는 다음 각 호의 업무를 수행한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 국가건설기준센터의 운영을 대통령령으로 정하는 전문기관에 위탁할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 국토교통부장관은 국가건설기준센터의 운영에 필요한 비용을 예산의 범위에서 출연할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 국가건설기준센터의 설치ㆍ운영과 제5항에 따른 출연금의 지급범위ㆍ사용 및 관리에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설공사의 적정한 공사비 산정을 위하여 건설공사의 실적을 토대로 산정한 공사비 및 표준품셈 등 공사비 산정기준을 정할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 제1항에 따른 공사비 산정기준의 관리를 위하여 국토교통부장관이 정하여 고시하는 관리기관으로 하여금 공사비 산정기준에 관한 조사ㆍ연구 등 업무를 수행하게 할 수 있다. 이 경우 국토교통부장관은 필요한 사업비에 충당하도록 출연할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항 후단에 따른 출연금의 지급기준, 사용 및 관리에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 건설공사를 안전하고 경제적ㆍ능률적으로 시행하기 위하여 건설공사의 계획ㆍ조사ㆍ설계ㆍ시공ㆍ감리ㆍ유지ㆍ관리 등(이하 이 조에서 "건설공사의 시행과정"이라 한다)을 대통령령으로 정하는 절차 및 기준에 따라 수행하여야 한다. &lt;개정 2015.7.24, 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 건설공사의 시행과정이 제1항에 따라 수행되지 아니하는 경우에는 발주청에 시정을 요구할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 시행하려는 건설공사에 대하여 계획 수립 이전에 경제, 기술, 사회 및 환경 등 종합적인 측면에서 적정성을 검토하기 위하여 타당성 조사를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청이 발주한 타당성 조사 용역을 수행한 건설엔지니어링사업자는 수요예측 자료 등 국토교통부령으로 정하는 자료를 용역 완료 후 지체 없이 발주청에 보고하여야 한다. &lt;신설 2013.7.16, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 제2항에 따라 보고받은 자료를 해당 건설공사의 완료 후 10년 동안 보관하여야 한다. &lt;신설 2013.7.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 발주청은 타당성을 조사하는 과정에서 작성한 수요예측과 실제 이용실적의 차이가 100분의 30 이상인 경우에는 제3항에 따른 자료를 근거로 건설엔지니어링사업자의 고의 또는 중과실 여부를 조사하여야 한다. &lt;신설 2013.7.16, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 발주청은 제4항의 조사 결과에 따라 고의 또는 중과실로 발주청에 손해를 끼친 건설엔지니어링사업자에 대하여 제31조제1항에 따른 영업정지처분 등 조치를 시ㆍ도지사에게 요청할 수 있다. &lt;신설 2013.7.16, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항에 따른 타당성 조사 대상 건설공사의 범위, 타당성 조사의 방법 및 절차, 제4항에 따른 수요예측과 이용실적 차이의 평가시점 및 방법 등에 관한 사항은 대통령령으로 정한다. &lt;개정 2013.7.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 설계 업무를 수행하는 건설엔지니어링사업자는 설계도서를 작성하여 해당 건설공사에 대한 건설사업관리 업무를 수행하는 건설엔지니어링사업자, 건설사업자 또는 주택건설등록업자에게 제출하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 설계도서를 제출받은 건설엔지니어링사업자, 건설사업자 또는 주택건설등록업자는 해당 건설공사를 시공하기 전에 설계도서를 검토하고 그 결과를 발주청에 보고하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항에 따른 설계도서의 검토 결과를 보고받은 발주청은 필요하면 설계도서를 작성한 건설엔지니어링사업자에게 시정ㆍ보완 등 필요한 조치를 요구하여야 한다. 이 경우 건설엔지니어링사업자는 요구받은 조치를 이행하는 데 필요한 비용의 지급 등을 요청할 수 있고, 발주청은 해당 조치의 원인이 건설엔지니어링사업자에게 있는 등 국토교통부령으로 정하는 불가피한 사유가 없으면 이에 응하여야 한다. &lt;개정 2019.4.30, 2020.10.20, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 건설사업자와 주택건설등록업자는 건설공사의 품질 향상과 정확한 시공 및 안전을 위하여 다음 각 호의 사항을 발주자가 선정한 건설사업관리를 수행하는 건설기술인 또는 제49조에 따른 공사감독자의 검토ㆍ확인을 받은 후 단계별로 시공하여야 한다. &lt;개정 2018.8.14, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 건설엔지니어링사업자는 설계도서를 작성할 때에는 구조물(가설구조물을 포함한다)에 대한 구조검토를 하여야 하며 그 설계도서의 작성에 참여한 건설기술인의 업무 수행내용을 국토교통부장관이 정하는 바에 따라 적어야 한다. 설계도서의 일부를 변경할 때에도 같다. &lt;개정 2015.1.6, 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항부터 제5항까지의 규정에 따른 설계도서의 작성, 검토 및 확인에 필요한 사항은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 건설공사가 설계도서, 계약서, 그 밖의 관계 서류의 내용대로 시공되도록 하고 건설공사의 품질 및 현장의 안전 등 건설공사를 관리하기 위하여 공사감독자를 선임하여야 한다. 다만, 발주청이 제39조제2항에 따라 건설사업관리를 하게 하는 경우는 제외한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 공사감독자의 업무 내용을 정하여 고시하여야 하며, 공사감독자는 이에 따른 감독 업무를 성실히 수행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청(「사회기반시설에 대한 민간투자법」에 따른 민간투자사업인 경우에는 같은 법 제2조제4호에 따른 주무관청을 말한다. 이하 이 조에서 같다)은 그가 발주하는 대통령령으로 정하는 규모 이상의 건설엔지니어링사업[「건축사법」 제2조제3호에 따른 설계(이하 "건축설계"라 한다)에 관한 용역사업을 포함한다. 이하 이 조에서 같다]에 대하여 그 업무 수행에 대한 평가를 하여야 한다. &lt;개정 2018.12.31, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청은 그가 발주하는 대통령령으로 정하는 규모 이상의 건설공사에 대하여 그 시공의 적정성에 대한 평가를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 제1항 및 제2항에 따라 평가를 한 경우에는 국토교통부령으로 정하는 바에 따라 국토교통부장관에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 제1항 및 제2항에 따른 평가 결과를 건설엔지니어링사업자(「건축사법」 제23조제2항에 따른 건축사사무소개설자를 포함한다. 이하 이 조에서 같다) 및 건설사업자별로 종합하여 건설엔지니어링 종합평가 및 시공 종합평가(이하 "종합평가"라 한다)를 하고 그 결과를 공개할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 국토교통부장관은 종합평가를 하기 위하여 필요한 경우에는 건설공사현장 등을 직접 점검하거나 건설엔지니어링사업자 또는 건설사업자에게 종합평가에 필요한 자료 제출을 요구할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항부터 제5항까지의 규정에 따른 건설엔지니어링 평가, 시공평가 또는 종합평가의 기준, 절차, 항목, 그 밖에 필요한 사항은 대통령령으로 정한다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 종합평가 결과 등 대통령령으로 정하는 바에 따라 우수건설엔지니어링사업자, 우수건설사업자 또는 우수건설기술인을 선정할 수 있다. &lt;개정 2018.8.14, 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청은 건설엔지니어링사업 또는 건설공사를 발주할 때 제1항에 따른 우수건설엔지니어링사업자, 우수건설사업자 또는 우수건설기술인을 우대할 수 있다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 제1항에 따른 우수건설엔지니어링사업자, 우수건설사업자 또는 우수건설기술인이 다음 각 호의 어느 하나에 해당하면 대통령령으로 정하는 바에 따라 그 선정을 취소하여야 한다. &lt;개정 2018.8.14, 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지에서 규정한 사항 외에 우수건설엔지니어링사업자, 우수건설사업자 또는 우수건설기술인의 선정에 필요한 세부사항은 대통령령으로 정한다. &lt;신설 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 발주청은 대통령령으로 정하는 건설공사가 완료되었을 때에는 공사 내용 및 효과를 조사ㆍ분석하여 사후평가를 하고 사후평가서를 작성하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 사후평가서의 적절성에 대한 발주청의 자문에 응하게 하기 위하여 발주청에 사후평가위원회를 둔다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청은 사후평가위원회에 자문하여 의견을 받은 결과 그 내용이 타당하면 사후평가서에 반영하는 등 필요한 조치를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 발주청은 사후평가서를 공개하여야 하며, 공개의 방법과 절차 등은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 국토교통부장관은 발주청의 사후평가서가 유사한 건설공사의 효율적 수행을 위한 자료로 활용될 수 있도록 방안을 마련하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항에 따른 건설공사 사후평가의 내용ㆍ방법, 사후평가위원회의 구성 및 운영 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 사후평가에 관한 업무를 효율적으로 추진하기 위하여 다음 각 호의 업무를 수행한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 전문관리기관을 지정하여 대통령령으로 정하는 바에 따라 제1항의 업무 전부 또는 일부를 위탁할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 전문관리기관의 운영에 필요한 비용을 예산의 범위에서 출연할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 전문관리기관의 지정ㆍ운영과 제3항에 따른 출연금의 지급범위ㆍ사용 및 관리에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관, 발주청(「사회기반시설에 대한 민간투자법」에 따른 민간투자사업인 경우에는 같은 법 제2조제5호에 따른 주무관청을 말한다. 이하 이 조에서 같다)과 인ㆍ허가기관의 장은 다음 각 호의 어느 하나에 해당하는 자가 건설엔지니어링, 건축설계, 「건축사법」 제2조제4호에 따른 공사감리 또는 건설공사를 성실하게 수행하지 아니함으로써 부실공사가 발생하였거나 발생할 우려가 있는 경우 및 제47조에 따른 건설공사의 타당성 조사(이하 "타당성 조사"라 한다)에서 건설공사에 대한 수요 예측을 고의 또는 과실로 부실하게 하여 발주청에 손해를 끼친 경우에는 부실의 정도를 측정하여 벌점을 주어야 한다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청은 제1항에 따라 벌점을 받은 자에게 건설엔지니어링 또는 건설공사 등을 위하여 발주청이 실시하는 입찰 시 그 벌점에 따라 불이익을 주어야 한다. &lt;개정 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청과 인ㆍ허가기관의 장은 제1항에 따라 벌점을 준 경우 그 내용을 국토교통부장관에게 통보하여야 하며, 국토교통부장관은 그 벌점을 종합관리하고, 제1항제1호부터 제3호까지의 자에게 준 벌점을 공개하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지의 규정에 따른 부실 정도의 측정기준, 불이익 내용, 벌점의 관리 및 공개 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관 또는 특별자치시장, 특별자치도지사, 시장ㆍ군수ㆍ구청장(자치구의 구청장을 말한다. 이하 같다), 발주청은 건설공사의 부실방지, 품질 및 안전 확보가 필요한 경우에는 대통령령으로 정하는 건설공사에 대하여는 현장 등을 점검할 수 있으며, 점검 결과 필요한 경우에는 대통령령으로 정하는 바에 따라 제53조제1항 각 호의 자에게 시정명령 등의 조치를 하거나 관계 기관에 대하여 관계 법률에 따른 영업정지 등의 요청을 할 수 있다. &lt;개정 2015.5.18, 2018.12.31, 2019.8.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 건설공사현장을 점검한 특별자치시장, 특별자치도지사, 시장ㆍ군수ㆍ구청장, 발주청은 점검결과 및 그에 따른 조치결과(시정명령 또는 영업정지 등을 포함한다)를 국토교통부장관에게 제출하여야 한다. &lt;신설 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청(발주자가 발주청이 아닌 경우 해당 건설공사의 인ㆍ허가기관을 말한다)은 제1항에 따른 건설공사로 인하여 안전사고나 부실공사가 우려되어 대통령령으로 정하는 요건을 갖춘 민원이 제기되는 경우 그 민원을 접수한 날부터 3일 이내에 현장 등을 점검하여야 하고, 그 점검결과 및 조치결과(시정명령 또는 영업정지 등을 포함한다)를 국토교통부장관에게 제출하여야 한다. &lt;신설 2019.8.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항에 따라 건설공사현장을 점검하는 자는 점검의 중복 등으로 인하여 그 건설공사에 지장을 주는 일이 없도록 하여야 한다. &lt;개정 2018.12.31, 2019.8.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항에 따른 건설공사현장 점검 등에 관하여 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2018.12.31, 2019.8.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설사업자와 주택건설등록업자는 대통령령으로 정하는 건설공사에 대하여는 그 종류에 따라 품질 및 공정 관리 등 건설공사의 품질관리계획(이하 "품질관리계획"이라 한다) 또는 시험 시설 및 인력의 확보 등 건설공사의 품질시험계획(이하 "품질시험계획"이라 한다)을 수립하고, 이를 발주자에게 제출하여 승인을 받아야 한다. 이 경우 발주청이 아닌 발주자는 미리 품질관리계획 또는 품질시험계획의 사본을 인ㆍ허가기관의 장에게 제출하여야 한다. &lt;개정 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설사업자와 주택건설등록업자는 품질관리계획 또는 품질시험계획에 따라 품질시험 및 검사를 하여야 한다. 이 경우 건설사업자나 주택건설등록업자에게 고용되어 품질관리 업무를 수행하는 건설기술인은 품질관리계획 또는 품질시험계획에 따라 그 업무를 수행하여야 한다. &lt;개정 2018.8.14, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청, 인ㆍ허가기관의 장 및 대통령령으로 정하는 기관의 장은 품질관리계획을 수립하여야 하는 건설공사에 대하여 건설사업자와 주택건설등록업자가 제2항에 따라 품질관리계획에 따른 품질관리를 적절하게 하는지를 확인할 수 있다. &lt;개정 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 품질관리계획 또는 품질시험계획의 수립 기준ㆍ승인 절차, 제3항에 따른 품질관리의 확인 방법ㆍ절차와 그 밖에 확인에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설공사의 발주자는 건설공사 계약을 체결할 때에는 건설공사의 품질관리에 필요한 비용(이하 "품질관리비"라 한다)을 국토교통부령으로 정하는 바에 따라 공사금액에 계상하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설공사의 규모 및 종류에 따른 품질관리비의 사용 방법 등에 관한 기준은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 대통령령으로 정하는 건설자재ㆍ부재의 품질 확보를 위하여 필요한 경우에는 관계 중앙행정기관의 장과 협의하여 건설자재ㆍ부재의 생산, 공급 및 보관 등에 필요한 사항을 정하여 고시할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 건설자재ㆍ부재를 생산(채취를 포함한다) 또는 수입ㆍ판매하는 자와 대통령령으로 정하는 공사에 이를 사용하는 건설사업자 또는 주택건설등록업자와 레디믹스트콘크리트(시멘트, 골재 및 물 등을 배합한 굳지 아니한 상태의 콘크리트를 말한다) 또는 아스팔트콘크리트 제조업자는 다음 각 호의 어느 하나에 적합한 건설자재ㆍ부재를 공급하거나 사용하여야 한다. &lt;개정 2013.7.16, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 레디믹스트콘크리트 제조업자가 반품된 레디믹스트콘크리트를 재사용하려는 경우에는 제2항 각 호의 어느 하나에 적합하여야 한다. &lt;신설 2013.7.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 건설자재ㆍ부재의 품질이 적절한지 확인할 수 있으며, 확인 결과 건설공사에 사용하는 것이 적합하지 아니하다고 인정되는 경우에는 관계 중앙행정기관의 장에게 시정명령 등 필요한 조치를 하도록 요청할 수 있다. &lt;개정 2013.7.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설공사에 사용되는 철강구조물을 제작하는 자의 신청을 받아 그 능력에 따라 철강구조물의 제작공장(이하 "철강구조물공장"이라 한다)을 등급별로 인증(이하 "공장인증"이라 한다)할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 공장인증을 받은 철강구조물공장의 운영 실태와 사후관리 상태에 대한 조사(이하 이 조에서 "실태조사"라 한다)를 실시하고 그 결과를 공표할 수 있다. &lt;개정 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 실태조사 결과 공장인증의 기준에 맞지 아니하다고 인정하면 시정에 필요한 조치를 명할 수 있다. &lt;개정 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 실태조사를 위하여 관계 행정기관 및 철강구조물공장을 운영하는 자 등 국토교통부령으로 정하는 자(이하 "철강구조물공장운영자등"이라 한다)에 대하여 필요한 자료의 제출을 요청할 수 있다. 이 경우 철강구조물공장운영자등은 정당한 사유가 없으면 이에 협조하여야 한다. &lt;신설 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항 및 제2항에 따른 공장인증의 대상, 기준, 절차 및 실태조사, 실태조사 결과의 공표 등에 필요한 사항은 대통령령으로 정한다. &lt;신설 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 공장인증을 받은 철강구조물공장이 다음 각 호의 어느 하나에 해당하면 그 공장인증을 취소할 수 있다. 다만, 제1호에 해당하는 경우에는 그 공장인증을 취소하여야 한다. &lt;개정 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 공장인증 취소 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설공사의 발주자, 건설사업자 또는 주택건설등록업자는 대통령령으로 정하는 국립ㆍ공립 시험기관 또는 건설엔지니어링사업자로 하여금 건설공사의 품질관리를 위한 시험ㆍ검사(이하 "품질검사"라 한다) 등을 대행하게 할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 품질검사의 대행을 의뢰받은 자는 발주자 또는 건설사업관리를 수행하는 건설엔지니어링사업자의 봉인 또는 확인을 거친 재료로 품질검사를 하여야 한다. &lt;신설 2017.8.9, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 품질검사의 대행을 의뢰받은 자는 건설공사에 사용되는 재료 등에 대한 품질검사를 하여 품질검사 성적서를 발급한 경우에는 발급한 날부터 7일 이내에 품질검사 성적서 및 품질검사 내용을 열람이 가능하도록 제19조에 따른 건설공사 지원 통합정보체계에 입력하여야 한다. &lt;신설 2017.8.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 품질검사를 대행하는 건설엔지니어링사업자가 제1항에 따라 품질검사를 정확하게 하는지 조사하고, 필요한 경우에는 시정을 명하는 등의 조치를 할 수 있다. 이 경우 국토교통부장관이 필요하다고 인정하면 조사 결과를 공표할 수 있다. &lt;개정 2015.12.29, 2017.8.9, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 그 밖에 제1항에 따른 품질검사의 대행, 제3항에 따른 건설공사 지원 통합정보체계 입력방법, 제4항에 따른 조사 및 조사 결과의 공표 등에 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2015.12.29, 2017.8.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 품질검사를 대행하는 건설엔지니어링사업자가 제26조제1항에 따른 등록기준을 갖추었는지와 품질검사를 정확하게 하는지에 관하여 전문적이고 기술적으로 조사ㆍ평가하기 위하여 「공공기관의 운영에 관한 법률」에 따른 공공기관 중에서 평가기관(이하 이 조에서 "평가기관"이라 한다)을 지정할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 정부는 평가기관에 대하여 예산의 범위에서 필요한 경비를 지원할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 평가기관의 운영 실태를 조사할 수 있으며, 조사 결과 필요하다고 인정하는 경우에는 시정을 명할 수 있다. 이 경우 국토교통부장관이 필요하다고 인정하면 운영 실태조사의 결과를 공표할 수 있다. &lt;개정 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 평가기관이 부정한 방법으로 조사ㆍ평가를 한 경우에는 그 지정을 취소하여야 하며, 시정명령에 따르지 아니한 경우에는 그 지정을 취소할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 국토교통부장관은 제3항에 따른 운영 실태조사를 위하여 평가기관에 대하여 필요한 자료의 제출을 요청할 수 있다. 이 경우 요청을 받은 평가기관은 정당한 사유가 없으면 이에 협조하여야 한다. &lt;개정 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항부터 제4항까지에 따른 평가기관의 지정, 지정취소, 관리 및 운영 실태조사, 운영 실태조사의 결과 공표 등에 필요한 사항은 국토교통부령으로 정한다. &lt;신설 2015.12.29&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설사업자와 주택건설등록업자는 대통령령으로 정하는 건설공사를 시행하는 경우 안전점검 및 안전관리조직 등 건설공사의 안전관리계획(이하 "안전관리계획"이라 한다)을 수립하고, 착공 전에 이를 발주자에게 제출하여 승인을 받아야 한다. 이 경우 발주청이 아닌 발주자는 미리 안전관리계획의 사본을 인ㆍ허가기관의 장에게 제출하여 승인을 받아야 한다. &lt;개정 2018.12.31, 2019.4.30, 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 안전관리계획을 제출받은 발주청 또는 인ㆍ허가기관의 장은 안전관리계획의 내용을 검토하여 그 결과를 건설사업자와 주택건설등록업자에게 통보하여야 한다. &lt;개정 2018.12.31, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 발주청 또는 인ㆍ허가기관의 장은 제1항에 따라 제출받아 승인한 안전관리계획서 사본과 제2항에 따른 검토결과를 국토교통부장관에게 제출하여야 한다. &lt;신설 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 건설사업자와 주택건설등록업자는 안전관리계획에 따라 안전점검을 하여야 한다. 이 경우 대통령령으로 정하는 안전점검에 대해서는 발주자(발주청이 아닌 경우에는 인ㆍ허가기관의 장을 말한다)가 대통령령으로 정하는 바에 따라 안전점검을 수행할 기관을 지정하여 그 업무를 수행하여야 한다. &lt;신설 2018.12.31, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 건설사업자와 주택건설등록업자는 제4항에 따라 실시한 안전점검 결과를 국토교통부장관에게 제출하여야 한다. &lt;신설 2018.12.31, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 안전관리계획의 수립 기준, 제출ㆍ승인의 방법 및 절차, 안전점검의 시기ㆍ방법 및 안전점검 대가(代價) 등에 필요한 사항은 대통령령으로 정한다. &lt;개정 2018.8.14, 2018.12.31, 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 건설사업자나 주택건설등록업자는 안전관리계획을 수립하였던 건설공사를 준공하였을 때에는 대통령령으로 정하는 방법 및 절차에 따라 안전점검에 관한 종합보고서(이하 "종합보고서"라 한다)를 작성하여 발주청(발주자가 발주청이 아닌 경우에는 인ㆍ허가기관의 장을 말한다)에게 제출하여야 한다. &lt;개정 2018.12.31, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 제7항에 따라 종합보고서를 받은 발주청 또는 인ㆍ허가기관의 장은 대통령령으로 정하는 바에 따라 종합보고서를 국토교통부장관에게 제출하여야 한다. &lt;개정 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑨ 국토교통부장관, 발주청 및 인ㆍ허가기관의 장은 제7항 및 제8항에 따라 받은 종합보고서를 대통령령으로 정하는 바에 따라 보존ㆍ관리하여야 한다. &lt;개정 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑩ 국토교통부장관은 건설공사의 안전을 확보하기 위하여 제3항에 따라 제출받은 안전관리계획서 및 계획서 검토결과와 제5항에 따라 제출받은 안전점검결과의 적정성을 대통령령으로 정하는 바에 따라 검토할 수 있으며, 적정성 검토 결과 필요한 경우 대통령령으로 정하는 바에 따라 발주청 또는 인ㆍ허가기관의 장으로 하여금 건설사업자 및 주택건설등록업자에게 시정명령 등 필요한 조치를 하도록 요청할 수 있다. &lt;신설 2018.12.31, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑪ 건설사업자 또는 주택건설등록업자는 동바리, 거푸집, 비계 등 가설구조물 설치를 위한 공사를 할 때 대통령령으로 정하는 바에 따라 가설구조물의 구조적 안전성을 확인하기에 적합한 분야의 「국가기술자격법」에 따른 기술사(이하 "관계전문가"라 한다)에게 확인을 받아야 한다. &lt;신설 2015.1.6, 2018.12.31, 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑫ 관계전문가는 가설구조물이 안전에 지장이 없도록 가설구조물의 구조적 안전성을 확인하여야 한다. &lt;신설 2015.1.6, 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑬ 국토교통부장관은 건설공사의 안전을 확보하기 위하여 건설공사에 참여하는 다음 각 호의 자(이하 "건설공사 참여자"라 한다)가 갖추어야 하는 안전관리체계와 수행하여야 하는 안전관리 업무 등을 정하여 고시하여야 한다. &lt;신설 2015.5.18, 2018.12.31, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑭ 국토교통부장관은 건설공사의 안전을 확보하기 위하여 건설공사 참여자의 안전관리 수준을 대통령령으로 정하는 절차 및 기준에 따라 평가하고 그 결과를 공개할 수 있다. &lt;신설 2015.5.18, 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑮ 국토교통부장관은 건설사고 통계 등 건설안전에 필요한 자료를 효율적으로 관리하고 공동활용을 촉진하기 위하여 건설공사 안전관리 종합정보망(이하 "정보망"이라 한다)을 구축ㆍ운영할 수 있다. &lt;신설 2015.5.18, 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑯ 국토교통부장관은 건설공사 참여자의 안전관리 수준을 평가하고, 정보망을 구축ㆍ운영하기 위하여 건설공사 참여자, 관련 협회, 중앙행정기관 또는 지방자치단체의 장에게 필요한 자료를 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 그 요청에 따라야 한다. &lt;신설 2015.5.18, 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑰ 정보망의 구축 및 운영 등에 필요한 사항은 대통령령으로 정한다. &lt;신설 2015.5.18, 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑱ 발주청은 대통령령으로 정하는 방법과 절차에 따라 설계의 안전성을 검토하고 그 결과를 국토교통부장관에게 제출하여야 한다. &lt;신설 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설사업자와 주택건설등록업자는 제62조제1항에 따른 안전관리계획의 수립 대상이 아닌 건설공사 중 건설사고가 발생할 위험이 있는 공종이 포함된 경우 그 건설공사를 착공하기 전에 시공 절차 및 주의사항 등 안전관리에 대한 계획(이하 "소규모안전관리계획"이라 한다)을 수립하고, 이를 발주자(발주자가 발주청이 아닌 경우에는 인ㆍ허가기관의 장을 말한다. 이하 이 조에서 같다)에게 제출하여 승인을 받아야 한다. 소규모안전관리계획을 변경하려는 경우에도 또한 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 소규모안전관리계획을 제출받은 발주자는 소규모 안전관리계획의 내용을 검토하여 그 결과를 건설사업자와 주택건설등록업자에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 소규모안전관리계획을 수립하여야 하는 건설공사의 범위, 소규모안전관리계획의 수립 기준, 제출ㆍ승인의 방법 및 절차에 관하여 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설공사의 발주자는 건설공사 계약을 체결할 때에 건설공사의 안전관리에 필요한 비용(이하 "안전관리비"라 한다)을 국토교통부령으로 정하는 바에 따라 공사금액에 계상하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설공사의 규모 및 종류에 따른 안전관리비의 사용방법 등에 관한 기준은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 안전관리계획을 수립하는 건설사업자 및 주택건설등록업자는 다음 각 호의 사람으로 구성된 안전관리조직을 두어야 한다. &lt;개정 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 안전관리조직의 구성, 직무, 그 밖에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 안전관리계획을 수립하는 건설사업자 및 주택건설등록업자는 건설공사의 안전관리를 위하여 건설공사에 참여하는 공사작업자 등에게 안전교육을 실시하여야 한다. &lt;개정 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 안전교육의 시기 및 방법과 그 밖에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 건설공사가 환경과 조화되게 시행될 수 있도록 관련 기술을 개발ㆍ보급하고, 다음 각 호의 사항을 관계 중앙행정기관의 장과 협의하여 마련하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설공사의 발주자, 건설사업자 및 주택건설등록업자는 건설공사로 인한 환경피해를 최소한으로 줄일 수 있도록 건설공사의 환경관리를 위하여 노력하여야 한다. &lt;개정 2019.4.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 건설공사의 발주자는 건설공사 계약을 체결할 때에는 환경 훼손 및 오염 방지 등 건설공사의 환경관리에 필요한 비용(이하 "환경관리비"라 한다)을 국토교통부령으로 정하는 바에 따라 공사금액에 계상하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 환경관리비의 사용방법 등에 관한 기준은 국토교통부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설사고가 발생한 것을 알게 된 건설공사 참여자(발주자는 제외한다)는 지체 없이 그 사실을 발주청 및 인ㆍ허가기관의 장에게 통보하여야 한다. &lt;신설 2015.5.18&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 발주청 및 인ㆍ허가기관의 장은 제1항에 따라 사고 사실을 통보받았을 때에는 대통령령으로 정하는 바에 따라 다음 각 호의 사항을 즉시 국토교통부장관에게 제출하여야 한다. &lt;신설 2015.5.18, 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관, 발주청 및 인ㆍ허가기관의 장은 대통령령으로 정하는 중대한 건설사고(이하 "중대건설현장사고"라 한다)가 발생하면 그 원인 규명과 사고 예방을 위하여 건설공사 현장에서 사고 경위 및 사고 원인 등을 조사할 수 있다. &lt;개정 2015.5.18, 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제3항에 따라 사고 경위 및 사고 원인 등을 조사한 발주청과 인ㆍ허가기관의 장은 그 결과를 국토교통부장관에게 제출하여야 한다. &lt;개정 2015.5.18&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 국토교통부장관, 발주청 및 인ㆍ허가기관의 장은 필요한 경우 제68조에 따른 건설사고조사위원회로 하여금 중대건설현장사고의 경위 및 원인을 조사하게 할 수 있다. &lt;개정 2015.5.18&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항에 따른 건설사고에 대한 통보방법 및 절차 등과 제2항에 따른 중대건설현장사고의 조사에 필요한 사항은 대통령령으로 정한다. &lt;개정 2015.5.18&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관, 발주청 및 인ㆍ허가기관의 장은 중대건설현장사고의 조사를 위하여 필요하다고 인정하는 경우에는 건설사고조사위원회를 구성ㆍ운영할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 건설사고조사위원회는 중대건설현장사고의 조사를 마쳤을 때에는 유사한 건설사고의 재발 방지를 위한 대책을 국토교통부장관, 발주청, 인ㆍ허가기관의 장, 그 밖의 관계 행정기관의 장에게 권고하거나 건의할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관, 발주청, 인ㆍ허가기관의 장, 그 밖의 관계 행정기관의 장은 특별한 사유가 없으면 제2항에 따른 건설사고조사위원회의 권고 또는 건의에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관이 제82조제2항에 따라 건설사고조사위원회의 운영에 관한 사무를 「공공기관의 운영에 관한 법률」에 따른 공공기관에 위탁한 경우에는 그 사무 처리에 필요한 경비를 해당 공공기관에 출연하거나 보조할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 건설사고조사위원회의 구성 및 운영에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설기술인 또는 건설엔지니어링사업자는 품위 유지, 복리 증진 및 건설기술 개발 등을 위하여 건설기술인단체 또는 건설엔지니어링사업자단체를 설립할 수 있다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 건설기술인단체 및 건설엔지니어링사업자단체(이하 이 장에서 "협회"라 한다)는 각각 법인으로 한다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 협회는 주된 사무소의 소재지에서 설립등기를 함으로써 성립한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 협회를 설립하려면 협회 회원이 될 자격이 있는 자의 10분의 1 이상 또는 50명 이상이 발기인이 되어 정관을 작성하여 발기인총회의 의결을 마친 후 국토교통부장관의 인가를 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 협회 회원의 자격과 임원에 관한 사항, 협회의 업무 등은 정관으로 정하며, 그 밖에 정관에 포함하여야 할 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 제1항에 따른 인가를 하였을 때에는 그 사실을 공고하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 건설사업관리(「건설산업기본법」 제26조제2항 단서에 따라 건설사업관리와 설계업무를 함께 수행하는 경우는 제외한다. 이하 이 조에서 같다)를 수행하는 건설엔지니어링사업자는 건설사업관리에 필요한 각종 보증과 융자 등을 위하여 국토교통부장관의 인가를 받아 공제조합을 설립할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 공제조합은 법인으로 하며, 주된 사무소의 소재지에서 설립등기를 함으로써 성립한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 공제조합의 조합원 자격, 임원, 출자 및 운영 등에 필요한 사항은 정관으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 공제조합의 설립인가 기준ㆍ절차, 정관 기재 사항 및 감독 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 공제조합은 다음 각 호의 사업을 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 공제조합은 제1항제1호에 따른 보증사업 및 같은 항 제3호에 따른 공제사업을 하려면 사업에 필요한 보증규정 및 공제규정을 정하여 국토교통부장관의 인가를 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항의 보증규정 및 공제규정에 포함하여야 할 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 공제조합의 재무건전성 유지 등을 위하여 필요한 경우에는 소속 공무원으로 하여금 공제조합의 업무 상황 또는 회계 상황을 조사하게 하거나 장부 또는 그 밖의 서류를 검사하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제75조제1항제3호의 공제사업에 대하여는 대통령령으로 정하는 바에 따라 금융위원회가 제1항에 따른 조사 또는 검사를 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 제75조제1항제1호의 보증사업에 따른 재무건전성 유지 등을 지도ㆍ감독하기 위하여 필요한 기준을 정하여 고시하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 제75조제1항제3호에 따른 공제사업을 건전하게 육성하고 계약자를 보호하기 위하여 금융위원회 위원장과 협의하여 감독에 필요한 기준을 정한 후 고시하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 국토교통부장관은 제3항 및 제4항에 따른 기준을 정할 때 자기자본비율, 유동성비율, 지급여력비율 등 공제조합의 건전성을 보호하기 위한 기준을 포함하여야 한다. &lt;신설 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 공제조합의 감독을 위하여 필요한 경우에는 공제조합에 그 업무에 관한 사항의 보고 또는 자료 제출을 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관은 공제조합이 제76조제3항 및 제4항에 따른 기준에 미달하거나 미달하게 될 것이 명백하다고 판단되는 경우에는 공제조합의 부실화를 예방하고 건전경영을 유도하기 위하여 공제조합이나 그 임원에 대하여 다음 각 호의 사항을 권고ㆍ요구 또는 명령하거나 그 이행계획의 제출을 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국토교통부장관은 제2항에 따른 조치를 하려면 미리 그 내용 및 기준을 정하여 고시하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 국토교통부장관은 제2항에도 불구하고 공제조합이 대통령령으로 정하는 기간 이내에 그 기준을 충족시킬 것으로 판단되거나 그에 준하는 사유가 있다고 인정되는 경우에는 기간을 정하여 필요한 조치를 유예할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국토교통부장관은 이 법에 따른 권한의 일부를 대통령령으로 정하는 바에 따라 중앙행정기관의 장에게 위탁하거나 시ㆍ도지사 또는 대통령령으로 정하는 국토교통부 소속 기관의 장에게 위임할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국토교통부장관 또는 시ㆍ도지사는 이 법에 따른 업무의 일부를 대통령령으로 정하는 바에 따라 「공공기관의 운영에 관한 법률」에 따른 공공기관, 협회, 그 밖에 건설기술 또는 시설안전과 관련된 기관 또는 단체에 위탁할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제28조제1항을 위반하여 착공 후부터 「건설산업기본법」 제28조에 따른 하자담보책임기간까지의 기간에 다리, 터널, 철도, 그 밖에 대통령령으로 정하는 시설물의 구조에서 주요 부분에 중대한 손괴(損壞)를 일으켜 사람을 다치거나 죽음에 이르게 한 자는 무기 또는 3년 이상의 징역에 처한다. &lt;개정 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 죄를 범하여 사람을 위험하게 한 자는 10년 이하의 징역 또는 1억원 이하의 벌금에 처한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 업무상 과실로 제85조제1항의 죄를 범하여 사람을 다치거나 죽음에 이르게 한 자는 10년 이하의 징역이나 금고 또는 1억원 이하의 벌금에 처한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 업무상 과실로 제85조제2항의 죄를 범한 자는 5년 이하의 징역이나 금고 또는 5천만원 이하의 벌금에 처한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제47조제1항에 따른 타당성 조사를 할 때 고의로 수요 예측을 부실하게 하여 발주청에 손해를 끼친 건설엔지니어링사업자는 5년 이하의 징역 또는 5천만원 이하의 벌금에 처한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제47조제1항에 따른 타당성 조사를 할 때 중대한 과실로 수요 예측을 부실하게 하여 발주청에 손해를 끼친 건설엔지니어링사업자는 3년 이하의 금고 또는 3천만원 이하의 벌금에 처한다. &lt;개정 2019.4.30, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제85조의 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 10억원 이하의 벌금에 처한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제86조, 제88조 또는 제89조의 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 해당 조문의 벌금형을 과(科)한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 어느 하나에 해당하는 자에게는 2천만원 이하의 과태료를 부과한다. &lt;신설 2018.12.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 다음 각 호의 어느 하나에 해당하는 자에게는 1천만원 이하의 과태료를 부과한다. &lt;개정 2018.8.14, 2018.12.31, 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 다음 각 호의 어느 하나에 해당하는 자에게는 300만원 이하의 과태료를 부과한다. &lt;개정 2015.5.18, 2018.6.12, 2018.8.14, 2018.12.31, 2019.4.30, 2020.10.20, 2021.3.16&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지에 따른 과태료는 대통령령으로 정하는 바에 따라 국토교통부장관 또는 시ㆍ도지사가 부과ㆍ징수한다. &lt;개정 2018.12.31&gt;
-				</t>
+    <t>① 국토교통부장관은 건설기술의 연구ㆍ개발을 촉진하고 그 성과를 효율적으로 이용하며 관련 산업의 진흥을 도모하기 위하여 건설기술진흥 기본계획(이하 "기본계획"이라 한다)을 5년마다 수립하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 기본계획에는 다음 각 호의 사항이 포함되어야 한다. &lt;개정 2015.5.18, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 기본계획을 수립할 때에는 관계 중앙행정기관의 장과 미리 협의한 후 제5조에 따라 국토교통부에 두는 중앙건설기술심의위원회의 심의를 받아야 한다. 기본계획 중 대통령령으로 정하는 내용을 변경하려는 경우에도 같다.</t>
+  </si>
+  <si>
+    <t>④ 관계 행정기관의 장은 기본계획의 연차별 시행계획(이하 "시행계획"이라 한다)을 수립하여 국토교통부장관에게 통보하고 시행하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 제1항부터 제4항까지에서 규정한 사항 외에 기본계획과 시행계획의 수립ㆍ시행에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>⑥ 국토교통부장관은 건설기술의 진흥을 위하여 필요한 경우 건설기술에 관한 정보관리, 건설기술인력 관리, 건설공사의 환경관리ㆍ안전관리ㆍ품질관리 등 건설기술의 각 분야별 기본계획을 수립할 수 있다. &lt;신설 2015.5.18&gt;</t>
+  </si>
+  <si>
+    <t>① 건설기술의 진흥ㆍ개발ㆍ활용 등 건설기술에 관한 사항을 심의하기 위하여 국토교통부에 중앙건설기술심의위원회(이하 "중앙심의위원회"라 한다)를 두고, 특별시ㆍ광역시ㆍ특별자치시ㆍ도 및 특별자치도(이하 "시ㆍ도"라 한다)에 지방건설기술심의위원회(이하 "지방심의위원회"라 한다)를 둔다.</t>
+  </si>
+  <si>
+    <t>② 제1항에도 불구하고 국방ㆍ군사시설 건설공사에 관한 설계 사항을 심의하기 위하여 국방부에 특별건설기술심의위원회(이하 "특별심의위원회"라 한다)를 둘 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 중앙심의위원회의 구성ㆍ기능 및 운영 등에 필요한 사항은 대통령령으로 정하는 기준에 따라 국토교통부장관이 관계 중앙행정기관의 장과 협의하여 정하고, 지방심의위원회의 구성ㆍ기능 및 운영 등에 필요한 사항은 대통령령으로 정하는 기준에 따라 해당 시ㆍ도의 조례로 정하며, 특별심의위원회를 두는 경우 그 구성ㆍ기능 및 운영 등에 필요한 사항은 대통령령으로 정하는 기준에 따라 국방부장관이 정한다.</t>
+  </si>
+  <si>
+    <t>① 건설공사의 설계 및 시공 등의 적정성에 관한 발주청의 자문에 응하게 하기 위하여 발주청에 기술자문위원회를 둘 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 기술자문위원회의 구성ㆍ기능 및 운영 등에 필요한 사항은 대통령령으로 정하는 기준에 따라 발주청이 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설기술을 향상시키고 기본계획을 효율적으로 추진하기 위하여 대통령령으로 정하는 기관 또는 단체와 협약을 체결하여 건설기술 발전에 필요한 건설기술 연구ㆍ개발 사업을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 건설기술 연구ㆍ개발 사업에 필요한 경비는 정부 또는 정부 외의 자의 출연금이나 그 밖에 기업의 기술개발비로 충당한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따른 협약의 체결방법과 제2항에 따른 출연금의 지급ㆍ사용 및 관리에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설기술과 정보통신, 전자, 기계 등 다른 분야 기술을 융ㆍ복합한 기술(이하 "융ㆍ복합건설기술"이라 한다)의 개발ㆍ보급 및 활용을 촉진하기 위한 시책을 마련하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 융ㆍ복합건설기술을 활성화하기 위하여 스마트건설지원센터를 설치ㆍ운영할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 스마트건설지원센터는 다음 각 호의 업무를 수행한다.</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 스마트건설지원센터의 운영을 대통령령으로 정하는 전문기관에 위탁할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 국토교통부장관은 스마트건설지원센터의 사업 및 운영에 필요한 비용을 예산의 범위에서 출연할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑥ 스마트건설지원센터의 설치ㆍ운영과 제5항에 따른 출연금의 지급범위ㆍ사용 및 관리에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 정부는 건설기술 연구ㆍ개발 사업을 효율적으로 지원하기 위하여 기술평가기관을 설립할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 기술평가기관은 법인으로 한다.</t>
+  </si>
+  <si>
+    <t>③ 기술평가기관은 주된 사무소의 소재지에서 설립등기를 함으로써 성립한다.</t>
+  </si>
+  <si>
+    <t>④ 기술평가기관은 다음 각 호의 사업을 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 기술평가기관은 제1항에 따른 목적 달성에 필요한 경비를 조달하기 위하여 대통령령으로 정하는 바에 따라 수익사업을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑥ 국토교통부장관은 예산의 범위에서 기술평가기관이 제4항에 따른 사업을 하는 데에 필요한 경비의 전부 또는 일부를 출연하거나 보조할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑦ 이 법에서 규정한 사항 외에 기술평가기관에 관하여는 「민법」의 재단법인에 관한 규정을 준용한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 제7조에 따른 건설기술 연구ㆍ개발 사업으로 개발된 건설기술의 이용ㆍ보급을 촉진하기 위하여 필요하다고 인정하는 경우에는 그 건설기술을 적용하는 시범사업을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 제1항에 따른 시범사업에 참여하는 발주청, 건설기술연구기관 등에 재정적ㆍ행정적ㆍ기술적 지원을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따른 시범사업을 위한 계획의 수립 및 추진 절차 등은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 국내에서 최초로 특정 건설기술을 개발하거나 기존 건설기술을 개량한 자의 신청을 받아 그 기술을 평가하여 신규성ㆍ진보성 및 현장 적용성이 있을 경우 그 기술을 새로운 건설기술(이하 "신기술"이라 한다)로 지정ㆍ고시할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 신기술을 개발한 자(이하 "기술개발자"라 한다)를 보호하기 위하여 필요한 경우에는 보호기간을 정하여 기술개발자가 기술사용료를 받을 수 있게 하거나 그 밖의 방법으로 보호할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 기술개발자는 신기술의 활용실적을 첨부하여 국토교통부장관에게 제2항에 따른 보호기간의 연장을 신청할 수 있고, 국토교통부장관은 그 신기술의 활용실적 등을 검증하여 보호기간을 연장할 수 있다. 이 경우 신기술 활용실적의 제출, 검증 및 보호기간의 연장 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 발주청에 신기술 및 제1항에 따라 신기술을 신청하고자 하는 기술과 관련된 장비 등의 성능시험이나 시공방법 등의 시험시공을 권고할 수 있으며, 신기술의 경우 성능시험 및 시험시공의 결과가 우수하면 신기술의 활용ㆍ촉진을 위하여 발주청이 시행하는 건설공사에 신기술을 우선 적용하게 할 수 있다. &lt;개정 2019.8.27&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 발주청은 신기술이 기존 건설기술에 비하여 시공성 및 경제성 등의 측면에서 우수하다고 인정되는 경우 해당 신기술을 그가 시행하는 건설공사에 우선 적용하여야 한다. &lt;신설 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 신기술 및 제1항에 따라 신기술을 신청하고자 하는 기술을 적용하는 건설공사의 발주청 소속 계약사무담당자 및 설계 등 공사업무 담당자는 고의 또는 중대한 과실이 증명되지 아니하면 해당 기술 적용으로 인하여 발생한 해당 기관의 손실에 대하여는 책임을 지지 아니한다. &lt;신설 2015.12.29, 2019.8.27&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 국토교통부장관은 제2항에 따라 보호를 받는 기술개발자에게 신기술의 성능 또는 품질의 향상을 위하여 필요한 경우에는 신기술의 개선을 권고할 수 있다. &lt;개정 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>⑧ 제1항에 따른 신기술 평가방법 및 지정절차 등과 제2항에 따른 신기술의 보호내용, 기술사용료, 보호기간 및 활용방법 등과 제4항에 따른 시험시공의 권고 등에 관하여 필요한 사항은 대통령령으로 정한다. &lt;개정 2015.12.29, 2019.8.27&gt;</t>
+  </si>
+  <si>
+    <t>① 기술개발자는 건설사업자 중 대통령령으로 정하는 요건을 갖춘 자와 해당 신기술의 사용협약(이하 "신기술사용협약"이라 한다)을 체결할 수 있다. 이 경우 기술개발자 또는 신기술사용협약을 체결한 자는 대통령령으로 정하는 서류를 갖추어 국토교통부장관에게 신기술사용협약에 관한 증명서의 발급을 신청할 수 있다. &lt;개정 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 제1항 후단에 따른 신청을 받은 경우 신기술사용협약을 체결한 자가 같은 항 전단에 따른 요건을 갖추었는지 확인한 후에 신기술사용협약에 관한 증명서를 발급하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 신기술사용협약의 기간은 해당 신기술의 보호기간 이내로 한다.</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지에서 규정한 사항 외에 신기술사용협약에 관한 세부적인 사항은 대통령령으로 정하는 기준에 따라 국토교통부장관이 정하여 고시한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 「외국인투자 촉진법」에 따라 외국에서 도입된 건설기술을 효율적으로 이용하기 위하여 대통령령으로 정하는 바에 따라 관리하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 발주청은 건설공사 또는 건설엔지니어링사업을 국제경쟁입찰방식으로 발주하는 경우에는 국내에서 필요한 새로운 건설기술을 보다 많이 제공할 수 있는 자를 우대하여 발주할 수 있다. 이 경우 국내에서 필요한 새로운 건설기술인지 여부는 중앙심의위원회의 심의를 거쳐 결정한다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 제2항에 따른 우대 발주에 관하여 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 다음 각 호의 건설기술에 관한 자료 및 정보의 종합적인 유통체계를 갖추고 그 보급과 확산을 위하여 대통령령으로 정하는 바에 따라 건설기술정보체계를 구축ㆍ운영하여야 한다. &lt;개정 2018.8.14, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 제1항에 따른 건설기술정보체계의 구축을 위하여 중앙행정기관, 지방자치단체 및 공기업ㆍ준정부기관의 장이 대통령령으로 정하는 건설기술 관련 자료를 발행하거나 제작하였을 때에 그 자료의 제공을 요청할 수 있다. 이 경우 자료의 제공을 요청받은 기관의 장은 특별한 사유가 없으면 요청에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제2항에 따른 건설기술 관련 자료의 송부 방법 및 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설공사 과정의 정보화를 촉진하고 그 성과를 효율적으로 이용하도록 하기 위하여 건설공사 지원 통합정보체계의 구축에 관한 기본계획(이하 "통합정보체계 구축계획"이라 한다)을 수립하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 통합정보체계 구축계획에는 다음 각 호의 사항이 포함되어야 한다.</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 통합정보체계 구축계획을 수립할 때에는 관계 중앙행정기관의 장과 협의한 후에 중앙심의위원회의 심의를 받아야 한다. 통합정보체계 구축계획 중 제2항제1호부터 제3호까지의 사항이나 그 밖에 대통령령으로 정하는 내용을 변경하려는 경우에도 같다.</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 통합정보체계 구축계획을 수립할 때에는 「지능정보화 기본법」 제6조에 따른 지능정보사회 종합계획 및 같은 법 제7조에 따른 지능정보사회 실행계획과 연계되도록 하여야 한다. &lt;개정 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 국토교통부장관은 관계 중앙행정기관, 지방자치단체 및 「공공기관의 운영에 관한 법률」에 따른 공공기관 등 관계 기관의 장에게 건설공사 지원 통합정보체계의 구축ㆍ운영에 필요한 자료 또는 정보의 제공을 요청할 수 있다. 이 경우 자료 또는 정보의 제공을 요청받은 기관의 장은 특별한 사유가 없으면 요청에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 국토교통부장관은 국토교통부장관이 정하여 고시하는 전담기관으로 하여금 건설공사 지원 통합정보체계를 구축ㆍ운영하게 할 수 있다. 이 경우 국토교통부장관은 전담기관의 장에게 필요한 사업비에 충당하도록 출연할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑦ 제6항에 따른 전담기관의 관리, 그 밖에 건설공사 지원 통합정보체계의 구축ㆍ운영 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설기술인의 효율적 활용과 기술능력 향상을 위하여 필요한 경우에는 건설기술인의 육성과 교육ㆍ훈련 등에 관한 시책을 수립ㆍ추진할 수 있다. &lt;개정 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>② 대통령령으로 정하는 건설기술인은 업무 수행에 필요한 소양과 지식을 습득하기 위하여 대통령령으로 정하는 바에 따라 국토교통부장관이 실시하는 교육ㆍ훈련을 받아야 한다. 이 경우 국토교통부장관은 교육ㆍ훈련 이수 실적을 제21조제2항에 따른 건설기술인 등급 산정에 활용할 수 있다. &lt;개정 2018.6.12, 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>③ 제2항 전단에 따라 교육ㆍ훈련을 받아야 할 사람을 고용하고 있는 사용자는 건설기술인이 제2항 전단에 따른 교육ㆍ훈련을 받는 데에 필요한 경비를 부담하여야 하며, 이를 이유로 그 건설기술인에게 불이익을 주어서는 아니 된다. &lt;개정 2018.6.12, 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지에서 규정한 사항 외에 건설기술인의 육성 및 교육ㆍ훈련에 필요한 세부사항은 대통령령으로 정한다. &lt;신설 2018.12.31, 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설기술인을 육성하기 위하여 「공공기관의 운영에 관한 법률」에 따른 공공기관이나 대통령령으로 정하는 건설기술과 관련된 기관 또는 단체로 하여금 제20조제2항 전단에 따른 교육ㆍ훈련을 대행하도록 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 교육ㆍ훈련을 대행하려는 자는 교육시설, 교수요원 등 대통령령으로 정하는 요건을 갖추어 국토교통부장관에게 신청하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 제1항에 따라 교육ㆍ훈련을 대행하는 자(이하 "교육ㆍ훈련기관"이라 한다)에게 교육ㆍ훈련에 필요한 비용의 일부를 지원할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지에서 규정한 사항 외에 교육ㆍ훈련 대행에 필요한 세부사항은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제20조의2제1항에 따른 대행의 유효기간은 3년으로 한다.</t>
+  </si>
+  <si>
+    <t>② 교육ㆍ훈련기관이 대행의 유효기간이 끝난 후에도 대행을 계속하려는 경우에는 그 유효기간이 끝나기 전에 국토교통부장관의 심사를 받아 대행을 갱신하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제2항에 따라 대행을 갱신하려는 교육ㆍ훈련기관은 국토교통부령으로 정하는 바에 따라 국토교통부장관에게 대행의 갱신을 신청하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지에서 규정한 사항 외에 대행의 유효기간 및 갱신에 필요한 세부사항은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 교육ㆍ훈련기관이 다음 각 호의 어느 하나에 해당하는 경우 교육ㆍ훈련 대행을 취소하거나 1년 이내의 기간을 정하여 정지 또는 개선을 명할 수 있다. 다만, 제1호의 경우에는 대행을 취소하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 교육ㆍ훈련의 대행이 취소된 경우로서 다음 각 호의 어느 하나에 해당하면 그 취소된 날부터 3년이 지나기 전에는 교육ㆍ훈련의 대행을 신청할 수 없다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 다음 각 호에 따른 업무의 전부 또는 일부를 대통령령으로 정하는 자에게 위탁할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 제1항에 따른 업무의 위탁에 필요한 비용을 지원할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 제1항 및 제2항에 따른 업무 위탁의 범위, 비용 지원, 위탁 절차 등 교육ㆍ훈련 업무의 위탁에 필요한 사항은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 건설공사 또는 건설엔지니어링 업무에 종사하는 사람으로서 건설기술인으로 인정받으려는 사람은 근무처ㆍ경력ㆍ학력 및 자격 등(이하 "근무처 및 경력등"이라 한다)의 관리에 필요한 사항을 국토교통부장관에게 신고하여야 한다. 신고사항이 변경된 경우에도 같다. &lt;개정 2018.8.14, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 제1항에 따라 신고를 받은 경우에는 건설기술인의 근무처 및 경력등에 관한 기록을 유지ㆍ관리하여야 하고, 신고내용을 토대로 건설기술인 등급을 정할 수 있으며, 건설기술인이 신청하면 건설기술인의 등급, 근무처 및 경력등에 관한 증명서(이하 "건설기술경력증"이라 한다)를 발급할 수 있다. &lt;개정 2018.6.12, 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 제1항에 따라 신고받은 내용을 확인하기 위하여 필요한 경우에는 중앙행정기관, 지방자치단체, 「초ㆍ중등교육법」 제2조 및 「고등교육법」 제2조에 따른 학교, 발주청, 신고한 건설기술인이 소속된 건설 관련 업체 등 관계 기관의 장에게 관계 자료를 제출하여 줄 것을 요청할 수 있다. 이 경우 요청을 받은 기관의 장은 특별한 사유가 없으면 요청에 따라야 한다. &lt;개정 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>④ 「건설산업기본법」 등 관계 법률에 따라 인가, 허가, 등록, 면허 등을 하려는 행정기관의 장은 건설기술인의 근무처 및 경력등의 확인이 필요한 경우에는 국토교통부장관의 확인을 받아야 한다. &lt;개정 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제1항부터 제4항까지의 규정에 따른 건설기술인의 신고, 건설기술경력증의 발급ㆍ관리, 건설기술인의 현황 통보 등에 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>① 건설기술인은 발주자 또는 건설사업관리를 수행하는 건설기술인의 공사관리 등과 관련한 요구를 이행하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 발주자 또는 건설기술인을 고용하고 있는 사용자는 관계 법령에 위반되거나 건설공사의 설계도서, 시방서(示方書), 그 밖의 관계 서류의 내용과 맞지 아니한 사항을 건설기술인에게 요구해서는 아니 되며, 건설기술인은 이러한 부당한 요구를 받은 때에는 이유를 밝히고 그 요구를 따르지 아니할 수 있다. 이 경우 발주자 또는 건설기술인을 고용하고 있는 사용자는 이를 이유로 그 건설기술인에게 불이익을 주어서는 아니 된다. &lt;개정 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>③ 제69조제1항에 따른 건설기술인단체는 건설기술인의 업무수행과 관련된 권리ㆍ의무 등 기본적인 사항을 건설기술인권리헌장으로 제정하여 공표할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 건설기술인은 자기의 성명을 사용하여 다른 사람에게 건설공사 또는 건설엔지니어링 업무를 수행하게 하거나 건설기술경력증을 빌려 주어서는 아니 된다. &lt;개정 2018.8.14, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 누구든지 다른 사람의 성명을 사용하여 건설공사 또는 건설엔지니어링 업무를 수행하거나 다른 사람의 건설기술경력증을 빌려서는 아니 된다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 누구든지 제1항이나 제2항에서 금지된 행위를 알선하여서는 아니 된다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설기술인이 다음 각 호의 어느 하나에 해당하면 2년 이내의 기간을 정하여 건설공사 또는 건설엔지니어링 업무의 수행을 정지하게 할 수 있다. &lt;개정 2018.8.14, 2018.12.31, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 발주청은 건설기술인이 업무를 성실하게 수행하지 아니함으로써 건설공사가 부실하게 될 우려가 있으면 국토교통부령으로 정하는 바에 따라 그 건설기술인에게 시정지시 등 필요한 조치를 하고, 그 결과를 국토교통부장관에게 제출하여야 한다. &lt;개정 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청과 건설공사의 허가ㆍ인가ㆍ승인 등을 한 행정기관(이하 "인ㆍ허가기관"이라 한다)의 장은 건설기술인이 제1항 각 호의 어느 하나에 해당하는 경우에는 그 사실을 국토교통부장관에게 통보하여야 하며, 국토교통부장관은 건설기술인에 대하여 제1항에 따라 업무의 수행을 정지하게 한 경우 해당 발주청 및 인ㆍ허가기관의 장에게 그 내용을 통보하여야 한다. &lt;개정 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항에 따라 업무정지처분을 받은 건설기술인은 지체 없이 건설기술경력증을 국토교통부장관에게 반납하여야 하며, 국토교통부장관은 근무처 및 경력등에 관한 기록의 수정 또는 말소 등 필요한 조치를 하여야 한다. &lt;개정 2018.8.14&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제1항에 따른 업무정지의 기준과 그 밖에 필요한 사항은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설엔지니어링에 관한 기술 수준의 향상과 건설엔지니어링업의 건전한 발전 및 고도화를 도모하기 위하여 필요한 경우에는 산업통상자원부장관 및 관계 중앙행정기관의 장과 협의하여 건설산업의 특성에 맞게 건설엔지니어링업의 육성 및 지원을 위한 시책을 수립하여 시행할 수 있다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 건설엔지니어링업의 육성을 위하여 건설엔지니어링사업자에게 다음 각 호의 사항을 지원할 수 있다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 발주청이 발주하는 건설엔지니어링사업을 수행하려는 자는 전문분야별 요건을 갖추어 특별시장ㆍ광역시장ㆍ특별자치시장ㆍ도지사 또는 특별자치도지사(이하 "시ㆍ도지사"라 한다)에게 등록하여야 한다. 다만, 발주청이 발주하는 건설엔지니어링 중 건설공사의 계획ㆍ조사ㆍ설계를 수행하기 위하여 시ㆍ도지사에게 등록하려는 자는 「엔지니어링산업 진흥법」 제2조제4호에 따른 엔지니어링사업자 또는 「기술사법」 제6조제1항에 따른 사무소를 등록한 기술사이어야 한다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 시ㆍ도지사는 건설엔지니어링사업자에게 국토교통부령으로 정하는 바에 따라 등록증을 발급하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 건설엔지니어링사업자는 제1항에 따라 등록한 사항 중 국토교통부령으로 정하는 사항이 변경된 경우에는 국토교통부령으로 정하는 기간 이내에 변경등록을 하여야 한다. &lt;개정 2019.4.30, 2020.10.20, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 건설엔지니어링사업자는 휴업하거나 폐업하는 경우에는 국토교통부령으로 정하는 바에 따라 시ㆍ도지사에게 신고하여야 한다. 이 경우 폐업신고를 받은 시ㆍ도지사는 그 등록을 말소하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 시ㆍ도지사는 제1항부터 제4항까지의 규정에 따라 건설엔지니어링사업자가 등록 또는 변경등록을 하거나 건설엔지니어링사업자로부터 휴업 또는 폐업 신고를 받은 경우에는 그 사실을 국토교통부장관에게 통보하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항 본문에 따른 건설엔지니어링업의 전문분야 구분, 전문분야별 등록요건 및 업무범위 등은 대통령령으로 정한다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 건설엔지니어링업의 등록 및 변경등록, 휴업ㆍ폐업의 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 건설엔지니어링사업자와 그 건설엔지니어링 업무를 수행하는 건설기술인은 관계 법령에 따라 성실하고 정당하게 업무를 수행하여야 한다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 건설엔지니어링사업자는 타인에게 자기의 성명 또는 상호를 사용하여 건설엔지니어링을 하게 하거나 등록증을 빌려 주어서는 아니 된다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 건설엔지니어링사업자는 다음 각 호의 어느 하나에 해당하는 경우에는 국토교통부령으로 정하는 바에 따라 시ㆍ도지사에게 신고하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 시ㆍ도지사는 제1항에 따른 신고를 받은 날부터 30일 이내에 신고수리 여부를 신고인에게 통지하여야 한다. &lt;신설 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>③ 시ㆍ도지사가 제2항에서 정한 기간 내에 신고수리 여부 또는 민원 처리 관련 법령에 따른 처리기간의 연장을 신고인에게 통지하지 아니하면 그 기간(민원 처리 관련 법령에 따라 처리기간이 연장 또는 재연장된 경우에는 해당 처리기간을 말한다)이 끝난 날의 다음 날에 신고를 수리한 것으로 본다. &lt;신설 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>④ 다음 각 호의 어느 하나에 해당하는 자는 제26조제1항에 따른 등록요건을 갖추고 제1항에 따른 신고가 수리된 때(제3항에 따라 신고가 수리된 것으로 보는 때를 포함한다)부터 건설엔지니어링업의 등록에 관한 권리ㆍ의무를 승계한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제4항에 따라 종전의 건설엔지니어링업의 등록에 관한 권리ㆍ의무를 승계한 자는 국토교통부령으로 정하는 바에 따라 종전의 건설엔지니어링 실적을 승계한다. &lt;개정 2018.12.31, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설엔지니어링업을 체계적으로 육성하기 위하여 다음 각 호의 현황 및 실적을 관리하여야 한다. &lt;신설 2019.11.26, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 발주청은 그가 발주하는 건설엔지니어링의 계약을 체결하거나 변경한 경우와 건설엔지니어링을 준공한 경우에는 10일 이내에 그 사실을 국토교통부장관에게 통보하여야 한다. &lt;개정 2019.11.26, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 발주자가 적절한 건설엔지니어링사업자를 선정할 수 있도록 하기 위하여 제1항에 따른 건설엔지니어링사업자의 현황과 건설엔지니어링 실적을 공개할 수 있다. &lt;개정 2019.4.30, 2019.11.26, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지의 규정에 따른 건설엔지니어링의 현황 및 실적 관리ㆍ통보ㆍ공개 등에 필요한 사항은 대통령령으로 정한다. &lt;개정 2019.11.26, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 시ㆍ도지사는 건설엔지니어링사업자가 다음 각 호의 어느 하나에 해당하면 그 등록을 취소하거나 1년 이내의 기간을 정하여 영업의 전부 또는 일부의 정지를 명할 수 있다. 다만, 제1호부터 제5호까지의 어느 하나에 해당하면 등록을 취소하여야 한다. &lt;개정 2018.6.12, 2019.1.15, 2019.4.30, 2020.6.9, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 시ㆍ도지사는 건설엔지니어링사업자가 다음 각 호의 어느 하나에 해당하면 6개월 이내의 기간을 정하여 영업정지를 명할 수 있다. &lt;개정 2016.1.19, 2017.8.9, 2018.8.14, 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 건설엔지니어링사업자는 제1항과 제2항에 따른 영업정지기간에는 상호를 바꾸어 건설엔지니어링의 입찰에 참가하거나 건설엔지니어링을 수주(受注)할 수 없다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 발주청과 인ㆍ허가기관의 장은 건설엔지니어링사업자가 제1항 각 호 또는 제2항 각 호의 어느 하나에 해당하는 경우에는 그 사실을 시ㆍ도지사에게 통보하여야 하며, 시ㆍ도지사는 건설엔지니어링사업자에 대하여 제1항ㆍ제2항 또는 제32조제1항에 따라 등록취소, 영업정지 또는 과징금 부과 등의 조치를 하는 경우 국토교통부장관, 해당 발주청 및 인ㆍ허가기관의 장에게 그 내용을 통보하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제1항과 제2항에 따른 처분의 세부 기준은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 시ㆍ도지사는 제31조제1항에 따라 영업정지를 명하여야 하는 경우에는 영업정지를 갈음하여 2억원 이하의 과징금을, 같은 조 제2항에 따라 영업정지를 명하여야 하는 경우에는 영업정지를 갈음하여 6천만원 이하의 과징금을 부과할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 과징금 부과처분을 받은 자가 과징금을 기한까지 내지 아니하면 「지방행정제재ㆍ부과금의 징수 등에 관한 법률」에 따라 징수한다. &lt;개정 2013.8.6, 2020.3.24&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 과징금을 부과하는 위반행위의 종류 및 위반 정도 등에 따른 과징금의 금액과 그 밖에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제31조제1항 또는 제2항에 따라 등록취소 또는 영업정지의 처분을 받은 건설엔지니어링사업자는 그 처분을 받기 전에 체결한 건설엔지니어링계약에 따른 업무는 계속할 수 있다. 이 경우 건설엔지니어링사업자는 그 처분을 받은 내용을 대통령령으로 정하는 기간 이내에 해당 건설엔지니어링의 발주자에게 통지하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 건설엔지니어링의 발주자는 건설엔지니어링사업자로부터 제1항에 따른 통지를 받거나 그 사실을 안 경우에는 그 날부터 30일 이내에만 해당 건설엔지니어링 계약을 해지할 수 있다. &lt;개정 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>① 건설엔지니어링사업자는 건설엔지니어링 계약을 이행할 때 고의 또는 과실로 해당 건설엔지니어링 목적물 또는 제3자에게 손해를 발생하게 한 경우에는 그 손해를 배상하여야 한다. &lt;개정 2015.7.24, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 배상을 담보하기 위하여 대통령령으로 정하는 건설엔지니어링사업자는 보험 또는 공제에 가입하여야 한다. 이 경우 발주청은 보험 또는 공제 가입에 따른 비용을 건설엔지니어링 비용에 계상(計上)하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청은 건설사업관리 계약을 체결할 때 건설엔지니어링사업자로 하여금 하자책임을 보증하게 하기 위하여 하자보증금을 예치하게 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 제2항에 따른 보험 또는 공제의 기간, 종류, 대상 및 방법 등에 관하여 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>⑤ 제3항에 따른 하자책임의 범위, 하자보증금의 산정(算定) 및 예치방법 등에 관하여 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 발주청은 건설엔지니어링사업 중 대통령령으로 정하는 규모 이상의 사업을 시행할 때에는 대통령령으로 정하는 바에 따라 집행계획을 작성하여 공고하여야 한다. &lt;개정 2018.12.31, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 공고된 사업은 대통령령으로 정하는 사업수행능력 평가에 의한 선정기준 및 선정절차에 따라 선정된 건설엔지니어링사업자에게 맡겨 시행하여야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청은 제39조제2항에 따라 건설사업관리를 시행할 건설엔지니어링사업자를 선정할 때에는 다음 각 호에 모두 해당하는 건설엔지니어링사업자(각 호에 해당하는 자와 공동수급체를 구성한 건설엔지니어링사업자를 포함한다)를 우대할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 건설엔지니어링사업자는 제2항에 따라 발주청이 발주하는 건설엔지니어링을 도급받은 경우 발주청의 승인을 받아 그 일부를 다른 건설엔지니어링사업자에게 하도급할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제4항에 따른 승인 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 발주청은 건설엔지니어링을 건설엔지니어링사업자에게 수행하게 한 경우에는 다른 법령이나 국토교통부장관이 정하여 고시하는 건설엔지니어링비 산정기준에 따라 산정한 건설엔지니어링비를 지급하여야 한다. 이 경우 발주청은 천재지변 등 국토교통부령으로 정하는 불가피한 사유가 있는 경우를 제외하고는 건설엔지니어링비를 임의로 감액하여 지급할 수 없다. &lt;개정 2019.4.30, 2020.10.20, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 국토교통부장관이 건설엔지니어링비 산정기준을 정할 때에는 미리 기획재정부장관 또는 산업통상자원부장관 등 관계 행정기관의 장과 협의하여야 한다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관 또는 시ㆍ도지사는 건설엔지니어링사업자의 업무 수행에 관한 사항을 지도ㆍ감독하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관 또는 시ㆍ도지사는 제1항에 따른 지도ㆍ감독을 위하여 필요하다고 인정하는 경우에는 건설엔지니어링사업자에게 그 업무에 관한 보고 또는 관계 자료의 제출을 명할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관 또는 시ㆍ도지사는 제1항에 따른 지도ㆍ감독을 위하여 필요하다고 인정하는 경우에는 소속 공무원으로 하여금 사무실 및 공사현장 등에 출입하여 검사하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제3항에 따른 검사를 하는 사람은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 보여주어야 한다.</t>
+  </si>
+  <si>
+    <t>① 발주청은 건설공사를 효율적으로 수행하기 위하여 필요한 경우에는 다음 각 호의 어느 하나에 해당하는 건설공사에 대하여 건설엔지니어링사업자로 하여금 건설사업관리를 하게 할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 발주청은 건설공사의 품질 확보 및 향상을 위하여 대통령령으로 정하는 건설공사에 대하여는 법인인 건설엔지니어링사업자로 하여금 건설사업관리(시공단계에서 품질 및 안전관리 실태의 확인, 설계변경에 관한 사항의 확인, 준공검사 등 발주청의 감독 권한대행 업무를 포함한다)를 하게 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청은 대통령령으로 정하는 설계용역에 대하여 건설엔지니어링사업자로 하여금 건설사업관리를 하게 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지의 규정에 따른 건설사업관리 업무를 수행한 건설엔지니어링사업자는 건설공사의 주요 구조부에 대한 시공, 검사 및 시험 등 세부적인 업무내용을 포함한 보고서를 국토교통부령으로 정하는 바에 따라 작성하여 발주청에 제출하여야 한다. 이 경우 건설사업관리보고서는 건설엔지니어링사업자의 소속 건설기술인 중 대통령령으로 정하는 건설기술인이 작성하여야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 건설엔지니어링사업자는 다음 각 호의 어느 하나에 해당하는 건설기술인으로 하여금 제1항부터 제3항까지의 규정에 따른 건설사업관리 업무를 수행하게 할 수 없다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제2항에 따라 건설사업관리를 수행하는 건설엔지니어링사업자는 다음 각 호의 업무를 수행하여야 한다. 이 경우 건설엔지니어링사업자는 소속 건설기술인 중 대통령령으로 정하는 건설기술인에게 해당 업무의 수행을 지시하여야 한다. &lt;신설 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 건설사업관리의 세부 업무 내용 및 업무 범위 등 제1항부터 제3항까지의 규정에 따라 건설사업관리를 수행하는 데 필요한 사항은 대통령령으로 정한다. &lt;개정 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>① 발주청은 건설공사의 부실시공 및 안전사고의 예방 등 건설공사의 시공을 관리하기 위하여 건설공사 착공 전까지 시공단계의 건설사업관리계획(이하 "건설사업관리계획"이라 한다)을 국토교통부장관이 정하여 고시하는 기준에 따라 수립하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 건설사업관리계획에는 다음 각 호의 사항을 포함하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 발주청은 제62조에 따른 안전관리계획을 수립하여야 하는 건설공사 및 총공사비가 100억원 이상인 건설공사 중 대통령령으로 정하는 건설공사에 대하여 건설사업관리계획을 수립할 때에는 제6조에 따른 기술자문위원회의 심의를 받아야 한다. 건설사업관리계획을 변경하려는 경우에도 또한 같다.</t>
+  </si>
+  <si>
+    <t>④ 발주청은 건설사업관리계획을 수립하거나 변경한 때에는 이를 국토교통부장관에게 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 발주청은 건설엔지니어링사업자로 하여금 시공단계의 건설사업관리를 하게 하려는 경우에는 건설사업관리계획을 준수하여 입찰공고하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 발주청은 제2항제2호에 따른 건설사업관리기술인 또는 공사감독자의 배치 등 건설사업관리계획을 준수할 수 없는 경우에는 건설공사를 착공하게 하거나 건설공사를 진행하게 하여서는 아니 된다.</t>
+  </si>
+  <si>
+    <t>⑦ 제1항부터 제5항까지에서 규정한 사항 외에 건설사업관리계획의 수립, 변경 또는 시행 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제39조제2항에 따라 건설사업관리를 수행하는 건설엔지니어링사업자는 건설사업자가 현지여건의 변경이나 건설공사의 품질향상 등을 위한 개선사항의 검토를 요청하는 경우 이를 검토하고, 발주청에 관련 서류를 첨부하여 보고하는 등 필요한 조치(이하 "실정보고"라 한다)를 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 건설엔지니어링사업자가 실정보고를 하는 경우에는 관련 기록을 유지ㆍ관리하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청은 건설엔지니어링사업자가 실정보고를 하는 경우 이를 접수하여 검토하고, 필요하면 설계변경 등 적절한 조치를 하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 건설사업관리를 수행하는 건설엔지니어링사업자는 소속 건설기술인 중에서 해당 건설사업관리의 책임건설기술인을 지명하여 실정보고의 권한을 위임할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 실정보고에 따른 조치 기한 등 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 발주청 소속 직원은 제39조제2항에 따라 건설사업관리를 시행하는 건설공사에 대하여 대통령령으로 정하는 발주청의 업무 외에 정당한 사유 없이 건설사업관리 업무를 수행하는 건설엔지니어링사업자(이하 "건설사업관리용역사업자"라 한다) 및 건설사업관리기술인의 업무에 개입 또는 간섭하거나 권한을 침해해서는 아니 된다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 발주청의 소속 직원이 건설사업관리용역사업자 및 건설사업관리기술인의 업무에 정당한 사유 없이 개입 또는 간섭하거나 권한을 침해한 경우 해당 건설사업관리용역사업자 및 건설사업관리기술인은 발주청에 이를 보고하고 사실조사를 의뢰할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 발주청은 제2항에 따른 사실조사를 의뢰받은 때에는 즉시 이를 조사하여야 하고, 소속 직원이 건설사업관리용역사업자 및 건설사업관리기술인의 업무에 대하여 정당한 사유 없이 개입 또는 간섭하거나 권한을 침해한 사실이 있다고 인정되는 경우에는 방해행위의 중지, 향후 재발방지 등 시정조치를 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 발주청은 제3항에 따른 사실조사 결과 및 시정조치 명령의 내용을 국토교통부장관, 해당 건설사업관리용역사업자 및 건설사업관리기술인에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 발주청은 제2항에 따른 사실조사 의뢰 등을 이유로 건설사업관리용역사업자 및 건설사업관리기술인에게 용역대가 지급의 거부ㆍ지체 등 불이익을 주어서는 아니 된다.</t>
+  </si>
+  <si>
+    <t>① 제39조제2항에 따라 건설사업관리를 수행하는 건설엔지니어링사업자와 제49조제1항에 따른 공사감독자는 건설사업자가 건설공사의 설계도서ㆍ시방서(示方書), 그 밖의 관계 서류의 내용과 맞지 아니하게 그 건설공사를 시공하는 경우 또는 제62조에 따른 안전관리 의무를 위반하거나, 제66조에 따른 환경관리 의무를 위반하여 인적ㆍ물적 피해가 우려되는 경우에는 재시공ㆍ공사중지(부분 공사중지를 포함한다) 명령이나 그 밖에 필요한 조치를 할 수 있다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 건설엔지니어링사업자 또는 공사감독자로부터 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치에 관한 지시를 받은 건설사업자는 특별한 사유가 없으면 이에 따라야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 건설엔지니어링사업자 또는 공사감독자는 제1항에 따라 건설사업자에게 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치를 한 경우에는 지체 없이 이에 관한 사항을 해당 건설공사의 발주청에 보고하여야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항에 따라 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치를 한 건설엔지니어링사업자 또는 공사감독자는 시정 여부를 확인한 후 공사재개 지시 등 필요한 조치를 하여야 하며, 이 경우 지체 없이 이에 관한 사항을 해당 건설공사의 발주청에 보고하여야 한다. &lt;개정 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 건설사업관리를 수행하는 건설엔지니어링사업자는 소속 건설기술인 중에서 해당 건설사업관리의 책임건설기술인을 지명하여 제1항에 따른 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치의 권한을 위임할 수 있다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항에 따른 재시공ㆍ공사중지 명령이나 그 밖에 필요한 조치의 요건, 절차 및 방법 등에 관하여 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 발주청은 건설공사와 그 건설공사에 딸리는 전기ㆍ소방 등의 설비공사(이하 "설비공사"라 한다)에 대한 건설사업관리 및 감리를 다음 각 호의 어느 하나에 해당하는 자로 하여금 하게 하는 경우에는 해당 건설사업관리를 수행하는 자와 감리를 수행하는 자 중에서 그 건설공사와 설비공사에 대한 건설사업관리 및 감리 업무를 총괄하여 관리할 자(이하 "총괄관리자"라 한다)를 선정할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 총괄관리자는 건설공사 및 설비공사의 품질ㆍ안전 관리와 효율적인 건설사업관리 및 감리 업무의 수행을 위하여 필요하다고 인정하는 경우에는 다른 건설사업관리를 수행하는 자와 감리를 수행하는 자에게 시정지시 등 필요한 조치를 할 수 있으며, 정당한 사유 없이 조치에 따르지 아니하는 경우에는 그 사실을 발주청에 보고하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 총괄관리자의 권한, 업무 범위, 그 밖에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설공사에 드는 비용을 줄이고 시설물의 품질을 향상시키기 위하여 건설자재ㆍ부재의 치수 및 시공방법을 표준화하도록 노력하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 제1항에 따른 표준화를 촉진하기 위하여 다음 각 호의 자에게 대통령령으로 정하는 바에 따라 설계ㆍ생산 또는 시공 과정에서 시험생산ㆍ시험시공 등을 하도록 권고할 수 있다. &lt;개정 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 관계 기관의 장에게 제1항에 따른 표준화와 관련된 「산업표준화법」 제12조에 따른 한국산업표준 등 기준의 정비 및 자금 지원 등 필요한 사항을 요청할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관이나 그 밖에 대통령령으로 정하는 자는 건설공사의 기술성ㆍ환경성 향상 및 품질 확보와 적정한 공사 관리를 위하여 다음 각 호에 관한 기준(이하 "건설기준"이라 한다)을 정할 수 있다. &lt;개정 2014.5.14&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 대통령령으로 정하는 자가 건설기준을 정하려면 국토교통부장관의 승인을 받아야 한다. &lt;개정 2014.5.14&gt;</t>
+  </si>
+  <si>
+    <t>③ 건설기준 설정의 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2014.5.14&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설기준의 개발 촉진과 그 활용을 위한 시책을 마련하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 건설기준을 효율적으로 관리하기 위하여 국가건설기준센터를 설치ㆍ운영할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 국가건설기준센터는 다음 각 호의 업무를 수행한다.</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 국가건설기준센터의 운영을 대통령령으로 정하는 전문기관에 위탁할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 국토교통부장관은 국가건설기준센터의 운영에 필요한 비용을 예산의 범위에서 출연할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑥ 국가건설기준센터의 설치ㆍ운영과 제5항에 따른 출연금의 지급범위ㆍ사용 및 관리에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설공사의 적정한 공사비 산정을 위하여 건설공사의 실적을 토대로 산정한 공사비 및 표준품셈 등 공사비 산정기준을 정할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 제1항에 따른 공사비 산정기준의 관리를 위하여 국토교통부장관이 정하여 고시하는 관리기관으로 하여금 공사비 산정기준에 관한 조사ㆍ연구 등 업무를 수행하게 할 수 있다. 이 경우 국토교통부장관은 필요한 사업비에 충당하도록 출연할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 제2항 후단에 따른 출연금의 지급기준, 사용 및 관리에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 발주청은 건설공사를 안전하고 경제적ㆍ능률적으로 시행하기 위하여 건설공사의 계획ㆍ조사ㆍ설계ㆍ시공ㆍ감리ㆍ유지ㆍ관리 등(이하 이 조에서 "건설공사의 시행과정"이라 한다)을 대통령령으로 정하는 절차 및 기준에 따라 수행하여야 한다. &lt;개정 2015.7.24, 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 건설공사의 시행과정이 제1항에 따라 수행되지 아니하는 경우에는 발주청에 시정을 요구할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 발주청은 시행하려는 건설공사에 대하여 계획 수립 이전에 경제, 기술, 사회 및 환경 등 종합적인 측면에서 적정성을 검토하기 위하여 타당성 조사를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 발주청이 발주한 타당성 조사 용역을 수행한 건설엔지니어링사업자는 수요예측 자료 등 국토교통부령으로 정하는 자료를 용역 완료 후 지체 없이 발주청에 보고하여야 한다. &lt;신설 2013.7.16, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청은 제2항에 따라 보고받은 자료를 해당 건설공사의 완료 후 10년 동안 보관하여야 한다. &lt;신설 2013.7.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 발주청은 타당성을 조사하는 과정에서 작성한 수요예측과 실제 이용실적의 차이가 100분의 30 이상인 경우에는 제3항에 따른 자료를 근거로 건설엔지니어링사업자의 고의 또는 중과실 여부를 조사하여야 한다. &lt;신설 2013.7.16, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 발주청은 제4항의 조사 결과에 따라 고의 또는 중과실로 발주청에 손해를 끼친 건설엔지니어링사업자에 대하여 제31조제1항에 따른 영업정지처분 등 조치를 시ㆍ도지사에게 요청할 수 있다. &lt;신설 2013.7.16, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항에 따른 타당성 조사 대상 건설공사의 범위, 타당성 조사의 방법 및 절차, 제4항에 따른 수요예측과 이용실적 차이의 평가시점 및 방법 등에 관한 사항은 대통령령으로 정한다. &lt;개정 2013.7.16&gt;</t>
+  </si>
+  <si>
+    <t>① 설계 업무를 수행하는 건설엔지니어링사업자는 설계도서를 작성하여 해당 건설공사에 대한 건설사업관리 업무를 수행하는 건설엔지니어링사업자, 건설사업자 또는 주택건설등록업자에게 제출하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 설계도서를 제출받은 건설엔지니어링사업자, 건설사업자 또는 주택건설등록업자는 해당 건설공사를 시공하기 전에 설계도서를 검토하고 그 결과를 발주청에 보고하여야 한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 제2항에 따른 설계도서의 검토 결과를 보고받은 발주청은 필요하면 설계도서를 작성한 건설엔지니어링사업자에게 시정ㆍ보완 등 필요한 조치를 요구하여야 한다. 이 경우 건설엔지니어링사업자는 요구받은 조치를 이행하는 데 필요한 비용의 지급 등을 요청할 수 있고, 발주청은 해당 조치의 원인이 건설엔지니어링사업자에게 있는 등 국토교통부령으로 정하는 불가피한 사유가 없으면 이에 응하여야 한다. &lt;개정 2019.4.30, 2020.10.20, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 건설사업자와 주택건설등록업자는 건설공사의 품질 향상과 정확한 시공 및 안전을 위하여 다음 각 호의 사항을 발주자가 선정한 건설사업관리를 수행하는 건설기술인 또는 제49조에 따른 공사감독자의 검토ㆍ확인을 받은 후 단계별로 시공하여야 한다. &lt;개정 2018.8.14, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 건설엔지니어링사업자는 설계도서를 작성할 때에는 구조물(가설구조물을 포함한다)에 대한 구조검토를 하여야 하며 그 설계도서의 작성에 참여한 건설기술인의 업무 수행내용을 국토교통부장관이 정하는 바에 따라 적어야 한다. 설계도서의 일부를 변경할 때에도 같다. &lt;개정 2015.1.6, 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항부터 제5항까지의 규정에 따른 설계도서의 작성, 검토 및 확인에 필요한 사항은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 발주청은 건설공사가 설계도서, 계약서, 그 밖의 관계 서류의 내용대로 시공되도록 하고 건설공사의 품질 및 현장의 안전 등 건설공사를 관리하기 위하여 공사감독자를 선임하여야 한다. 다만, 발주청이 제39조제2항에 따라 건설사업관리를 하게 하는 경우는 제외한다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 공사감독자의 업무 내용을 정하여 고시하여야 하며, 공사감독자는 이에 따른 감독 업무를 성실히 수행하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 발주청(「사회기반시설에 대한 민간투자법」에 따른 민간투자사업인 경우에는 같은 법 제2조제4호에 따른 주무관청을 말한다. 이하 이 조에서 같다)은 그가 발주하는 대통령령으로 정하는 규모 이상의 건설엔지니어링사업[「건축사법」 제2조제3호에 따른 설계(이하 "건축설계"라 한다)에 관한 용역사업을 포함한다. 이하 이 조에서 같다]에 대하여 그 업무 수행에 대한 평가를 하여야 한다. &lt;개정 2018.12.31, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 발주청은 그가 발주하는 대통령령으로 정하는 규모 이상의 건설공사에 대하여 그 시공의 적정성에 대한 평가를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 발주청은 제1항 및 제2항에 따라 평가를 한 경우에는 국토교통부령으로 정하는 바에 따라 국토교통부장관에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 제1항 및 제2항에 따른 평가 결과를 건설엔지니어링사업자(「건축사법」 제23조제2항에 따른 건축사사무소개설자를 포함한다. 이하 이 조에서 같다) 및 건설사업자별로 종합하여 건설엔지니어링 종합평가 및 시공 종합평가(이하 "종합평가"라 한다)를 하고 그 결과를 공개할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 국토교통부장관은 종합평가를 하기 위하여 필요한 경우에는 건설공사현장 등을 직접 점검하거나 건설엔지니어링사업자 또는 건설사업자에게 종합평가에 필요한 자료 제출을 요구할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항부터 제5항까지의 규정에 따른 건설엔지니어링 평가, 시공평가 또는 종합평가의 기준, 절차, 항목, 그 밖에 필요한 사항은 대통령령으로 정한다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 종합평가 결과 등 대통령령으로 정하는 바에 따라 우수건설엔지니어링사업자, 우수건설사업자 또는 우수건설기술인을 선정할 수 있다. &lt;개정 2018.8.14, 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 발주청은 건설엔지니어링사업 또는 건설공사를 발주할 때 제1항에 따른 우수건설엔지니어링사업자, 우수건설사업자 또는 우수건설기술인을 우대할 수 있다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 제1항에 따른 우수건설엔지니어링사업자, 우수건설사업자 또는 우수건설기술인이 다음 각 호의 어느 하나에 해당하면 대통령령으로 정하는 바에 따라 그 선정을 취소하여야 한다. &lt;개정 2018.8.14, 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지에서 규정한 사항 외에 우수건설엔지니어링사업자, 우수건설사업자 또는 우수건설기술인의 선정에 필요한 세부사항은 대통령령으로 정한다. &lt;신설 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 발주청은 대통령령으로 정하는 건설공사가 완료되었을 때에는 공사 내용 및 효과를 조사ㆍ분석하여 사후평가를 하고 사후평가서를 작성하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 사후평가서의 적절성에 대한 발주청의 자문에 응하게 하기 위하여 발주청에 사후평가위원회를 둔다.</t>
+  </si>
+  <si>
+    <t>③ 발주청은 사후평가위원회에 자문하여 의견을 받은 결과 그 내용이 타당하면 사후평가서에 반영하는 등 필요한 조치를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 발주청은 사후평가서를 공개하여야 하며, 공개의 방법과 절차 등은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>⑤ 국토교통부장관은 발주청의 사후평가서가 유사한 건설공사의 효율적 수행을 위한 자료로 활용될 수 있도록 방안을 마련하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 제1항에 따른 건설공사 사후평가의 내용ㆍ방법, 사후평가위원회의 구성 및 운영 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 사후평가에 관한 업무를 효율적으로 추진하기 위하여 다음 각 호의 업무를 수행한다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 전문관리기관을 지정하여 대통령령으로 정하는 바에 따라 제1항의 업무 전부 또는 일부를 위탁할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 전문관리기관의 운영에 필요한 비용을 예산의 범위에서 출연할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 전문관리기관의 지정ㆍ운영과 제3항에 따른 출연금의 지급범위ㆍ사용 및 관리에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관, 발주청(「사회기반시설에 대한 민간투자법」에 따른 민간투자사업인 경우에는 같은 법 제2조제5호에 따른 주무관청을 말한다. 이하 이 조에서 같다)과 인ㆍ허가기관의 장은 다음 각 호의 어느 하나에 해당하는 자가 건설엔지니어링, 건축설계, 「건축사법」 제2조제4호에 따른 공사감리 또는 건설공사를 성실하게 수행하지 아니함으로써 부실공사가 발생하였거나 발생할 우려가 있는 경우 및 제47조에 따른 건설공사의 타당성 조사(이하 "타당성 조사"라 한다)에서 건설공사에 대한 수요 예측을 고의 또는 과실로 부실하게 하여 발주청에 손해를 끼친 경우에는 부실의 정도를 측정하여 벌점을 주어야 한다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 발주청은 제1항에 따라 벌점을 받은 자에게 건설엔지니어링 또는 건설공사 등을 위하여 발주청이 실시하는 입찰 시 그 벌점에 따라 불이익을 주어야 한다. &lt;개정 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청과 인ㆍ허가기관의 장은 제1항에 따라 벌점을 준 경우 그 내용을 국토교통부장관에게 통보하여야 하며, 국토교통부장관은 그 벌점을 종합관리하고, 제1항제1호부터 제3호까지의 자에게 준 벌점을 공개하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지의 규정에 따른 부실 정도의 측정기준, 불이익 내용, 벌점의 관리 및 공개 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관 또는 특별자치시장, 특별자치도지사, 시장ㆍ군수ㆍ구청장(자치구의 구청장을 말한다. 이하 같다), 발주청은 건설공사의 부실방지, 품질 및 안전 확보가 필요한 경우에는 대통령령으로 정하는 건설공사에 대하여는 현장 등을 점검할 수 있으며, 점검 결과 필요한 경우에는 대통령령으로 정하는 바에 따라 제53조제1항 각 호의 자에게 시정명령 등의 조치를 하거나 관계 기관에 대하여 관계 법률에 따른 영업정지 등의 요청을 할 수 있다. &lt;개정 2015.5.18, 2018.12.31, 2019.8.27&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 건설공사현장을 점검한 특별자치시장, 특별자치도지사, 시장ㆍ군수ㆍ구청장, 발주청은 점검결과 및 그에 따른 조치결과(시정명령 또는 영업정지 등을 포함한다)를 국토교통부장관에게 제출하여야 한다. &lt;신설 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청(발주자가 발주청이 아닌 경우 해당 건설공사의 인ㆍ허가기관을 말한다)은 제1항에 따른 건설공사로 인하여 안전사고나 부실공사가 우려되어 대통령령으로 정하는 요건을 갖춘 민원이 제기되는 경우 그 민원을 접수한 날부터 3일 이내에 현장 등을 점검하여야 하고, 그 점검결과 및 조치결과(시정명령 또는 영업정지 등을 포함한다)를 국토교통부장관에게 제출하여야 한다. &lt;신설 2019.8.27&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항에 따라 건설공사현장을 점검하는 자는 점검의 중복 등으로 인하여 그 건설공사에 지장을 주는 일이 없도록 하여야 한다. &lt;개정 2018.12.31, 2019.8.27&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제1항에 따른 건설공사현장 점검 등에 관하여 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2018.12.31, 2019.8.27&gt;</t>
+  </si>
+  <si>
+    <t>① 건설사업자와 주택건설등록업자는 대통령령으로 정하는 건설공사에 대하여는 그 종류에 따라 품질 및 공정 관리 등 건설공사의 품질관리계획(이하 "품질관리계획"이라 한다) 또는 시험 시설 및 인력의 확보 등 건설공사의 품질시험계획(이하 "품질시험계획"이라 한다)을 수립하고, 이를 발주자에게 제출하여 승인을 받아야 한다. 이 경우 발주청이 아닌 발주자는 미리 품질관리계획 또는 품질시험계획의 사본을 인ㆍ허가기관의 장에게 제출하여야 한다. &lt;개정 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>② 건설사업자와 주택건설등록업자는 품질관리계획 또는 품질시험계획에 따라 품질시험 및 검사를 하여야 한다. 이 경우 건설사업자나 주택건설등록업자에게 고용되어 품질관리 업무를 수행하는 건설기술인은 품질관리계획 또는 품질시험계획에 따라 그 업무를 수행하여야 한다. &lt;개정 2018.8.14, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청, 인ㆍ허가기관의 장 및 대통령령으로 정하는 기관의 장은 품질관리계획을 수립하여야 하는 건설공사에 대하여 건설사업자와 주택건설등록업자가 제2항에 따라 품질관리계획에 따른 품질관리를 적절하게 하는지를 확인할 수 있다. &lt;개정 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>④ 품질관리계획 또는 품질시험계획의 수립 기준ㆍ승인 절차, 제3항에 따른 품질관리의 확인 방법ㆍ절차와 그 밖에 확인에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 건설공사의 발주자는 건설공사 계약을 체결할 때에는 건설공사의 품질관리에 필요한 비용(이하 "품질관리비"라 한다)을 국토교통부령으로 정하는 바에 따라 공사금액에 계상하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 건설공사의 규모 및 종류에 따른 품질관리비의 사용 방법 등에 관한 기준은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 대통령령으로 정하는 건설자재ㆍ부재의 품질 확보를 위하여 필요한 경우에는 관계 중앙행정기관의 장과 협의하여 건설자재ㆍ부재의 생산, 공급 및 보관 등에 필요한 사항을 정하여 고시할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 건설자재ㆍ부재를 생산(채취를 포함한다) 또는 수입ㆍ판매하는 자와 대통령령으로 정하는 공사에 이를 사용하는 건설사업자 또는 주택건설등록업자와 레디믹스트콘크리트(시멘트, 골재 및 물 등을 배합한 굳지 아니한 상태의 콘크리트를 말한다) 또는 아스팔트콘크리트 제조업자는 다음 각 호의 어느 하나에 적합한 건설자재ㆍ부재를 공급하거나 사용하여야 한다. &lt;개정 2013.7.16, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>③ 레디믹스트콘크리트 제조업자가 반품된 레디믹스트콘크리트를 재사용하려는 경우에는 제2항 각 호의 어느 하나에 적합하여야 한다. &lt;신설 2013.7.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 건설자재ㆍ부재의 품질이 적절한지 확인할 수 있으며, 확인 결과 건설공사에 사용하는 것이 적합하지 아니하다고 인정되는 경우에는 관계 중앙행정기관의 장에게 시정명령 등 필요한 조치를 하도록 요청할 수 있다. &lt;개정 2013.7.16&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설공사에 사용되는 철강구조물을 제작하는 자의 신청을 받아 그 능력에 따라 철강구조물의 제작공장(이하 "철강구조물공장"이라 한다)을 등급별로 인증(이하 "공장인증"이라 한다)할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 공장인증을 받은 철강구조물공장의 운영 실태와 사후관리 상태에 대한 조사(이하 이 조에서 "실태조사"라 한다)를 실시하고 그 결과를 공표할 수 있다. &lt;개정 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 실태조사 결과 공장인증의 기준에 맞지 아니하다고 인정하면 시정에 필요한 조치를 명할 수 있다. &lt;개정 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 실태조사를 위하여 관계 행정기관 및 철강구조물공장을 운영하는 자 등 국토교통부령으로 정하는 자(이하 "철강구조물공장운영자등"이라 한다)에 대하여 필요한 자료의 제출을 요청할 수 있다. 이 경우 철강구조물공장운영자등은 정당한 사유가 없으면 이에 협조하여야 한다. &lt;신설 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제1항 및 제2항에 따른 공장인증의 대상, 기준, 절차 및 실태조사, 실태조사 결과의 공표 등에 필요한 사항은 대통령령으로 정한다. &lt;신설 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 공장인증을 받은 철강구조물공장이 다음 각 호의 어느 하나에 해당하면 그 공장인증을 취소할 수 있다. 다만, 제1호에 해당하는 경우에는 그 공장인증을 취소하여야 한다. &lt;개정 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 공장인증 취소 절차 등에 관하여 필요한 사항은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 건설공사의 발주자, 건설사업자 또는 주택건설등록업자는 대통령령으로 정하는 국립ㆍ공립 시험기관 또는 건설엔지니어링사업자로 하여금 건설공사의 품질관리를 위한 시험ㆍ검사(이하 "품질검사"라 한다) 등을 대행하게 할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 품질검사의 대행을 의뢰받은 자는 발주자 또는 건설사업관리를 수행하는 건설엔지니어링사업자의 봉인 또는 확인을 거친 재료로 품질검사를 하여야 한다. &lt;신설 2017.8.9, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 품질검사의 대행을 의뢰받은 자는 건설공사에 사용되는 재료 등에 대한 품질검사를 하여 품질검사 성적서를 발급한 경우에는 발급한 날부터 7일 이내에 품질검사 성적서 및 품질검사 내용을 열람이 가능하도록 제19조에 따른 건설공사 지원 통합정보체계에 입력하여야 한다. &lt;신설 2017.8.9&gt;</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 품질검사를 대행하는 건설엔지니어링사업자가 제1항에 따라 품질검사를 정확하게 하는지 조사하고, 필요한 경우에는 시정을 명하는 등의 조치를 할 수 있다. 이 경우 국토교통부장관이 필요하다고 인정하면 조사 결과를 공표할 수 있다. &lt;개정 2015.12.29, 2017.8.9, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 그 밖에 제1항에 따른 품질검사의 대행, 제3항에 따른 건설공사 지원 통합정보체계 입력방법, 제4항에 따른 조사 및 조사 결과의 공표 등에 필요한 사항은 국토교통부령으로 정한다. &lt;개정 2015.12.29, 2017.8.9&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 품질검사를 대행하는 건설엔지니어링사업자가 제26조제1항에 따른 등록기준을 갖추었는지와 품질검사를 정확하게 하는지에 관하여 전문적이고 기술적으로 조사ㆍ평가하기 위하여 「공공기관의 운영에 관한 법률」에 따른 공공기관 중에서 평가기관(이하 이 조에서 "평가기관"이라 한다)을 지정할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 정부는 평가기관에 대하여 예산의 범위에서 필요한 경비를 지원할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 평가기관의 운영 실태를 조사할 수 있으며, 조사 결과 필요하다고 인정하는 경우에는 시정을 명할 수 있다. 이 경우 국토교통부장관이 필요하다고 인정하면 운영 실태조사의 결과를 공표할 수 있다. &lt;개정 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 평가기관이 부정한 방법으로 조사ㆍ평가를 한 경우에는 그 지정을 취소하여야 하며, 시정명령에 따르지 아니한 경우에는 그 지정을 취소할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 국토교통부장관은 제3항에 따른 운영 실태조사를 위하여 평가기관에 대하여 필요한 자료의 제출을 요청할 수 있다. 이 경우 요청을 받은 평가기관은 정당한 사유가 없으면 이에 협조하여야 한다. &lt;개정 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항부터 제4항까지에 따른 평가기관의 지정, 지정취소, 관리 및 운영 실태조사, 운영 실태조사의 결과 공표 등에 필요한 사항은 국토교통부령으로 정한다. &lt;신설 2015.12.29&gt;</t>
+  </si>
+  <si>
+    <t>① 건설사업자와 주택건설등록업자는 대통령령으로 정하는 건설공사를 시행하는 경우 안전점검 및 안전관리조직 등 건설공사의 안전관리계획(이하 "안전관리계획"이라 한다)을 수립하고, 착공 전에 이를 발주자에게 제출하여 승인을 받아야 한다. 이 경우 발주청이 아닌 발주자는 미리 안전관리계획의 사본을 인ㆍ허가기관의 장에게 제출하여 승인을 받아야 한다. &lt;개정 2018.12.31, 2019.4.30, 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 안전관리계획을 제출받은 발주청 또는 인ㆍ허가기관의 장은 안전관리계획의 내용을 검토하여 그 결과를 건설사업자와 주택건설등록업자에게 통보하여야 한다. &lt;개정 2018.12.31, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>③ 발주청 또는 인ㆍ허가기관의 장은 제1항에 따라 제출받아 승인한 안전관리계획서 사본과 제2항에 따른 검토결과를 국토교통부장관에게 제출하여야 한다. &lt;신설 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>④ 건설사업자와 주택건설등록업자는 안전관리계획에 따라 안전점검을 하여야 한다. 이 경우 대통령령으로 정하는 안전점검에 대해서는 발주자(발주청이 아닌 경우에는 인ㆍ허가기관의 장을 말한다)가 대통령령으로 정하는 바에 따라 안전점검을 수행할 기관을 지정하여 그 업무를 수행하여야 한다. &lt;신설 2018.12.31, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 건설사업자와 주택건설등록업자는 제4항에 따라 실시한 안전점검 결과를 국토교통부장관에게 제출하여야 한다. &lt;신설 2018.12.31, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 안전관리계획의 수립 기준, 제출ㆍ승인의 방법 및 절차, 안전점검의 시기ㆍ방법 및 안전점검 대가(代價) 등에 필요한 사항은 대통령령으로 정한다. &lt;개정 2018.8.14, 2018.12.31, 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 건설사업자나 주택건설등록업자는 안전관리계획을 수립하였던 건설공사를 준공하였을 때에는 대통령령으로 정하는 방법 및 절차에 따라 안전점검에 관한 종합보고서(이하 "종합보고서"라 한다)를 작성하여 발주청(발주자가 발주청이 아닌 경우에는 인ㆍ허가기관의 장을 말한다)에게 제출하여야 한다. &lt;개정 2018.12.31, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>⑧ 제7항에 따라 종합보고서를 받은 발주청 또는 인ㆍ허가기관의 장은 대통령령으로 정하는 바에 따라 종합보고서를 국토교통부장관에게 제출하여야 한다. &lt;개정 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>⑨ 국토교통부장관, 발주청 및 인ㆍ허가기관의 장은 제7항 및 제8항에 따라 받은 종합보고서를 대통령령으로 정하는 바에 따라 보존ㆍ관리하여야 한다. &lt;개정 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>⑩ 국토교통부장관은 건설공사의 안전을 확보하기 위하여 제3항에 따라 제출받은 안전관리계획서 및 계획서 검토결과와 제5항에 따라 제출받은 안전점검결과의 적정성을 대통령령으로 정하는 바에 따라 검토할 수 있으며, 적정성 검토 결과 필요한 경우 대통령령으로 정하는 바에 따라 발주청 또는 인ㆍ허가기관의 장으로 하여금 건설사업자 및 주택건설등록업자에게 시정명령 등 필요한 조치를 하도록 요청할 수 있다. &lt;신설 2018.12.31, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>⑪ 건설사업자 또는 주택건설등록업자는 동바리, 거푸집, 비계 등 가설구조물 설치를 위한 공사를 할 때 대통령령으로 정하는 바에 따라 가설구조물의 구조적 안전성을 확인하기에 적합한 분야의 「국가기술자격법」에 따른 기술사(이하 "관계전문가"라 한다)에게 확인을 받아야 한다. &lt;신설 2015.1.6, 2018.12.31, 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>⑫ 관계전문가는 가설구조물이 안전에 지장이 없도록 가설구조물의 구조적 안전성을 확인하여야 한다. &lt;신설 2015.1.6, 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>⑬ 국토교통부장관은 건설공사의 안전을 확보하기 위하여 건설공사에 참여하는 다음 각 호의 자(이하 "건설공사 참여자"라 한다)가 갖추어야 하는 안전관리체계와 수행하여야 하는 안전관리 업무 등을 정하여 고시하여야 한다. &lt;신설 2015.5.18, 2018.12.31, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>⑭ 국토교통부장관은 건설공사의 안전을 확보하기 위하여 건설공사 참여자의 안전관리 수준을 대통령령으로 정하는 절차 및 기준에 따라 평가하고 그 결과를 공개할 수 있다. &lt;신설 2015.5.18, 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>⑮ 국토교통부장관은 건설사고 통계 등 건설안전에 필요한 자료를 효율적으로 관리하고 공동활용을 촉진하기 위하여 건설공사 안전관리 종합정보망(이하 "정보망"이라 한다)을 구축ㆍ운영할 수 있다. &lt;신설 2015.5.18, 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>⑯ 국토교통부장관은 건설공사 참여자의 안전관리 수준을 평가하고, 정보망을 구축ㆍ운영하기 위하여 건설공사 참여자, 관련 협회, 중앙행정기관 또는 지방자치단체의 장에게 필요한 자료를 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 그 요청에 따라야 한다. &lt;신설 2015.5.18, 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>⑰ 정보망의 구축 및 운영 등에 필요한 사항은 대통령령으로 정한다. &lt;신설 2015.5.18, 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>⑱ 발주청은 대통령령으로 정하는 방법과 절차에 따라 설계의 안전성을 검토하고 그 결과를 국토교통부장관에게 제출하여야 한다. &lt;신설 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>① 건설사업자와 주택건설등록업자는 제62조제1항에 따른 안전관리계획의 수립 대상이 아닌 건설공사 중 건설사고가 발생할 위험이 있는 공종이 포함된 경우 그 건설공사를 착공하기 전에 시공 절차 및 주의사항 등 안전관리에 대한 계획(이하 "소규모안전관리계획"이라 한다)을 수립하고, 이를 발주자(발주자가 발주청이 아닌 경우에는 인ㆍ허가기관의 장을 말한다. 이하 이 조에서 같다)에게 제출하여 승인을 받아야 한다. 소규모안전관리계획을 변경하려는 경우에도 또한 같다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 소규모안전관리계획을 제출받은 발주자는 소규모 안전관리계획의 내용을 검토하여 그 결과를 건설사업자와 주택건설등록업자에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 소규모안전관리계획을 수립하여야 하는 건설공사의 범위, 소규모안전관리계획의 수립 기준, 제출ㆍ승인의 방법 및 절차에 관하여 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 건설공사의 발주자는 건설공사 계약을 체결할 때에 건설공사의 안전관리에 필요한 비용(이하 "안전관리비"라 한다)을 국토교통부령으로 정하는 바에 따라 공사금액에 계상하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 건설공사의 규모 및 종류에 따른 안전관리비의 사용방법 등에 관한 기준은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 안전관리계획을 수립하는 건설사업자 및 주택건설등록업자는 다음 각 호의 사람으로 구성된 안전관리조직을 두어야 한다. &lt;개정 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 안전관리조직의 구성, 직무, 그 밖에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 안전관리계획을 수립하는 건설사업자 및 주택건설등록업자는 건설공사의 안전관리를 위하여 건설공사에 참여하는 공사작업자 등에게 안전교육을 실시하여야 한다. &lt;개정 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 안전교육의 시기 및 방법과 그 밖에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 건설공사가 환경과 조화되게 시행될 수 있도록 관련 기술을 개발ㆍ보급하고, 다음 각 호의 사항을 관계 중앙행정기관의 장과 협의하여 마련하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 건설공사의 발주자, 건설사업자 및 주택건설등록업자는 건설공사로 인한 환경피해를 최소한으로 줄일 수 있도록 건설공사의 환경관리를 위하여 노력하여야 한다. &lt;개정 2019.4.30&gt;</t>
+  </si>
+  <si>
+    <t>③ 건설공사의 발주자는 건설공사 계약을 체결할 때에는 환경 훼손 및 오염 방지 등 건설공사의 환경관리에 필요한 비용(이하 "환경관리비"라 한다)을 국토교통부령으로 정하는 바에 따라 공사금액에 계상하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 환경관리비의 사용방법 등에 관한 기준은 국토교통부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 건설사고가 발생한 것을 알게 된 건설공사 참여자(발주자는 제외한다)는 지체 없이 그 사실을 발주청 및 인ㆍ허가기관의 장에게 통보하여야 한다. &lt;신설 2015.5.18&gt;</t>
+  </si>
+  <si>
+    <t>② 발주청 및 인ㆍ허가기관의 장은 제1항에 따라 사고 사실을 통보받았을 때에는 대통령령으로 정하는 바에 따라 다음 각 호의 사항을 즉시 국토교통부장관에게 제출하여야 한다. &lt;신설 2015.5.18, 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관, 발주청 및 인ㆍ허가기관의 장은 대통령령으로 정하는 중대한 건설사고(이하 "중대건설현장사고"라 한다)가 발생하면 그 원인 규명과 사고 예방을 위하여 건설공사 현장에서 사고 경위 및 사고 원인 등을 조사할 수 있다. &lt;개정 2015.5.18, 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>④ 제3항에 따라 사고 경위 및 사고 원인 등을 조사한 발주청과 인ㆍ허가기관의 장은 그 결과를 국토교통부장관에게 제출하여야 한다. &lt;개정 2015.5.18&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 국토교통부장관, 발주청 및 인ㆍ허가기관의 장은 필요한 경우 제68조에 따른 건설사고조사위원회로 하여금 중대건설현장사고의 경위 및 원인을 조사하게 할 수 있다. &lt;개정 2015.5.18&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항에 따른 건설사고에 대한 통보방법 및 절차 등과 제2항에 따른 중대건설현장사고의 조사에 필요한 사항은 대통령령으로 정한다. &lt;개정 2015.5.18&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관, 발주청 및 인ㆍ허가기관의 장은 중대건설현장사고의 조사를 위하여 필요하다고 인정하는 경우에는 건설사고조사위원회를 구성ㆍ운영할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 건설사고조사위원회는 중대건설현장사고의 조사를 마쳤을 때에는 유사한 건설사고의 재발 방지를 위한 대책을 국토교통부장관, 발주청, 인ㆍ허가기관의 장, 그 밖의 관계 행정기관의 장에게 권고하거나 건의할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관, 발주청, 인ㆍ허가기관의 장, 그 밖의 관계 행정기관의 장은 특별한 사유가 없으면 제2항에 따른 건설사고조사위원회의 권고 또는 건의에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관이 제82조제2항에 따라 건설사고조사위원회의 운영에 관한 사무를 「공공기관의 운영에 관한 법률」에 따른 공공기관에 위탁한 경우에는 그 사무 처리에 필요한 경비를 해당 공공기관에 출연하거나 보조할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 건설사고조사위원회의 구성 및 운영에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 건설기술인 또는 건설엔지니어링사업자는 품위 유지, 복리 증진 및 건설기술 개발 등을 위하여 건설기술인단체 또는 건설엔지니어링사업자단체를 설립할 수 있다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 건설기술인단체 및 건설엔지니어링사업자단체(이하 이 장에서 "협회"라 한다)는 각각 법인으로 한다. &lt;개정 2018.8.14, 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>③ 협회는 주된 사무소의 소재지에서 설립등기를 함으로써 성립한다.</t>
+  </si>
+  <si>
+    <t>① 협회를 설립하려면 협회 회원이 될 자격이 있는 자의 10분의 1 이상 또는 50명 이상이 발기인이 되어 정관을 작성하여 발기인총회의 의결을 마친 후 국토교통부장관의 인가를 받아야 한다.</t>
+  </si>
+  <si>
+    <t>② 협회 회원의 자격과 임원에 관한 사항, 협회의 업무 등은 정관으로 정하며, 그 밖에 정관에 포함하여야 할 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 제1항에 따른 인가를 하였을 때에는 그 사실을 공고하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 건설사업관리(「건설산업기본법」 제26조제2항 단서에 따라 건설사업관리와 설계업무를 함께 수행하는 경우는 제외한다. 이하 이 조에서 같다)를 수행하는 건설엔지니어링사업자는 건설사업관리에 필요한 각종 보증과 융자 등을 위하여 국토교통부장관의 인가를 받아 공제조합을 설립할 수 있다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 공제조합은 법인으로 하며, 주된 사무소의 소재지에서 설립등기를 함으로써 성립한다.</t>
+  </si>
+  <si>
+    <t>③ 공제조합의 조합원 자격, 임원, 출자 및 운영 등에 필요한 사항은 정관으로 정한다.</t>
+  </si>
+  <si>
+    <t>④ 공제조합의 설립인가 기준ㆍ절차, 정관 기재 사항 및 감독 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 공제조합은 다음 각 호의 사업을 한다.</t>
+  </si>
+  <si>
+    <t>② 공제조합은 제1항제1호에 따른 보증사업 및 같은 항 제3호에 따른 공제사업을 하려면 사업에 필요한 보증규정 및 공제규정을 정하여 국토교통부장관의 인가를 받아야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제2항의 보증규정 및 공제규정에 포함하여야 할 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 공제조합의 재무건전성 유지 등을 위하여 필요한 경우에는 소속 공무원으로 하여금 공제조합의 업무 상황 또는 회계 상황을 조사하게 하거나 장부 또는 그 밖의 서류를 검사하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제75조제1항제3호의 공제사업에 대하여는 대통령령으로 정하는 바에 따라 금융위원회가 제1항에 따른 조사 또는 검사를 할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 제75조제1항제1호의 보증사업에 따른 재무건전성 유지 등을 지도ㆍ감독하기 위하여 필요한 기준을 정하여 고시하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 제75조제1항제3호에 따른 공제사업을 건전하게 육성하고 계약자를 보호하기 위하여 금융위원회 위원장과 협의하여 감독에 필요한 기준을 정한 후 고시하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 국토교통부장관은 제3항 및 제4항에 따른 기준을 정할 때 자기자본비율, 유동성비율, 지급여력비율 등 공제조합의 건전성을 보호하기 위한 기준을 포함하여야 한다. &lt;신설 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 공제조합의 감독을 위하여 필요한 경우에는 공제조합에 그 업무에 관한 사항의 보고 또는 자료 제출을 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관은 공제조합이 제76조제3항 및 제4항에 따른 기준에 미달하거나 미달하게 될 것이 명백하다고 판단되는 경우에는 공제조합의 부실화를 예방하고 건전경영을 유도하기 위하여 공제조합이나 그 임원에 대하여 다음 각 호의 사항을 권고ㆍ요구 또는 명령하거나 그 이행계획의 제출을 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 국토교통부장관은 제2항에 따른 조치를 하려면 미리 그 내용 및 기준을 정하여 고시하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 국토교통부장관은 제2항에도 불구하고 공제조합이 대통령령으로 정하는 기간 이내에 그 기준을 충족시킬 것으로 판단되거나 그에 준하는 사유가 있다고 인정되는 경우에는 기간을 정하여 필요한 조치를 유예할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 국토교통부장관은 이 법에 따른 권한의 일부를 대통령령으로 정하는 바에 따라 중앙행정기관의 장에게 위탁하거나 시ㆍ도지사 또는 대통령령으로 정하는 국토교통부 소속 기관의 장에게 위임할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 국토교통부장관 또는 시ㆍ도지사는 이 법에 따른 업무의 일부를 대통령령으로 정하는 바에 따라 「공공기관의 운영에 관한 법률」에 따른 공공기관, 협회, 그 밖에 건설기술 또는 시설안전과 관련된 기관 또는 단체에 위탁할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 제28조제1항을 위반하여 착공 후부터 「건설산업기본법」 제28조에 따른 하자담보책임기간까지의 기간에 다리, 터널, 철도, 그 밖에 대통령령으로 정하는 시설물의 구조에서 주요 부분에 중대한 손괴(損壞)를 일으켜 사람을 다치거나 죽음에 이르게 한 자는 무기 또는 3년 이상의 징역에 처한다. &lt;개정 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항의 죄를 범하여 사람을 위험하게 한 자는 10년 이하의 징역 또는 1억원 이하의 벌금에 처한다.</t>
+  </si>
+  <si>
+    <t>① 업무상 과실로 제85조제1항의 죄를 범하여 사람을 다치거나 죽음에 이르게 한 자는 10년 이하의 징역이나 금고 또는 1억원 이하의 벌금에 처한다.</t>
+  </si>
+  <si>
+    <t>② 업무상 과실로 제85조제2항의 죄를 범한 자는 5년 이하의 징역이나 금고 또는 5천만원 이하의 벌금에 처한다.</t>
+  </si>
+  <si>
+    <t>① 제47조제1항에 따른 타당성 조사를 할 때 고의로 수요 예측을 부실하게 하여 발주청에 손해를 끼친 건설엔지니어링사업자는 5년 이하의 징역 또는 5천만원 이하의 벌금에 처한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>② 제47조제1항에 따른 타당성 조사를 할 때 중대한 과실로 수요 예측을 부실하게 하여 발주청에 손해를 끼친 건설엔지니어링사업자는 3년 이하의 금고 또는 3천만원 이하의 벌금에 처한다. &lt;개정 2019.4.30, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>① 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제85조의 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 10억원 이하의 벌금에 처한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>② 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제86조, 제88조 또는 제89조의 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 해당 조문의 벌금형을 과(科)한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 어느 하나에 해당하는 자에게는 2천만원 이하의 과태료를 부과한다. &lt;신설 2018.12.31&gt;</t>
+  </si>
+  <si>
+    <t>② 다음 각 호의 어느 하나에 해당하는 자에게는 1천만원 이하의 과태료를 부과한다. &lt;개정 2018.8.14, 2018.12.31, 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>③ 다음 각 호의 어느 하나에 해당하는 자에게는 300만원 이하의 과태료를 부과한다. &lt;개정 2015.5.18, 2018.6.12, 2018.8.14, 2018.12.31, 2019.4.30, 2020.10.20, 2021.3.16&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지에 따른 과태료는 대통령령으로 정하는 바에 따라 국토교통부장관 또는 시ㆍ도지사가 부과ㆍ징수한다. &lt;개정 2018.12.31&gt;</t>
   </si>
   <si>
     <t>1. "건설공사"란 「건설산업기본법」 제2조제4호에 따른 건설공사를 말한다.</t>
